--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECE24E2-AFF0-45CF-89A3-107DFDD60F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC447097-F9E2-435B-BB3C-7E501C6BD723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>RETT</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>fees</t>
+  </si>
+  <si>
+    <t>Carrybackyrs</t>
+  </si>
+  <si>
+    <t>carryforwardyrs</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,6 +721,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1071,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView topLeftCell="Q1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,29 +1092,29 @@
     <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1198,7 +1207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1267,6 +1276,12 @@
       </c>
       <c r="X2" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>3</v>
@@ -1335,6 +1350,12 @@
       </c>
       <c r="X3">
         <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
       </c>
       <c r="AB3" t="s">
         <v>4</v>
@@ -1404,12 +1425,33 @@
       <c r="X4">
         <v>6</v>
       </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
       <c r="AB4" t="s">
         <v>4</v>
       </c>
       <c r="AC4">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1420,19 +1462,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X5" sqref="X3:X5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
@@ -1440,16 +1482,16 @@
     <col min="12" max="12" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.54296875" style="3" customWidth="1"/>
     <col min="25" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
@@ -1609,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>2019</v>
@@ -1618,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>2055</v>
+        <v>2100</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>47</v>
@@ -1627,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="3">
-        <v>300000</v>
+        <v>375000</v>
       </c>
       <c r="L3" s="3">
         <v>0.5</v>
@@ -1645,13 +1687,7 @@
         <v>49</v>
       </c>
       <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
-        <v>2</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T3" s="3">
         <v>9</v>
@@ -1665,7 +1701,9 @@
       <c r="W3" s="3">
         <v>300</v>
       </c>
-      <c r="X3" s="4"/>
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
@@ -1675,7 +1713,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
         <v>7</v>
@@ -1687,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="3">
-        <v>2060</v>
+        <v>2100</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>47</v>
@@ -1714,13 +1752,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="3">
-        <v>6</v>
-      </c>
-      <c r="R4" s="3">
-        <v>2</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T4" s="3">
         <v>4</v>
@@ -1734,9 +1766,11 @@
       <c r="W4" s="3">
         <v>300</v>
       </c>
-      <c r="X4" s="4"/>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1747,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <v>2015</v>
@@ -1756,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="3">
-        <v>2060</v>
+        <v>2100</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>
@@ -1783,13 +1817,7 @@
         <v>49</v>
       </c>
       <c r="Q5" s="3">
-        <v>3</v>
-      </c>
-      <c r="R5" s="3">
-        <v>2</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T5" s="3">
         <v>9</v>
@@ -1803,7 +1831,9 @@
       <c r="W5" s="3">
         <v>175</v>
       </c>
-      <c r="X5" s="4"/>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1821,8 +1851,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC447097-F9E2-435B-BB3C-7E501C6BD723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9631A-163D-4D38-937B-41A2AF18B6DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>2100</v>
+        <v>2025</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>47</v>
@@ -1713,7 +1713,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>7</v>
@@ -1725,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="3">
-        <v>2100</v>
+        <v>2028</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>47</v>
@@ -1790,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="3">
-        <v>2100</v>
+        <v>2027</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9631A-163D-4D38-937B-41A2AF18B6DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3086CC-0E78-4AD5-ADCA-6CA62774B5F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="3">
-        <v>2027</v>
+        <v>2050</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3086CC-0E78-4AD5-ADCA-6CA62774B5F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB73A67-ACE2-4501-9157-BB4BA6A85395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1657,7 +1657,7 @@
         <v>2019</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3">
         <v>2025</v>
@@ -1669,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="3">
-        <v>375000</v>
+        <v>300000</v>
       </c>
       <c r="L3" s="3">
         <v>0.5</v>
@@ -1722,10 +1722,10 @@
         <v>2018</v>
       </c>
       <c r="G4" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>47</v>
@@ -1734,7 +1734,7 @@
         <v>52</v>
       </c>
       <c r="K4" s="3">
-        <v>75000</v>
+        <v>300000</v>
       </c>
       <c r="L4" s="3">
         <v>0.7</v>
@@ -1761,7 +1761,7 @@
         <v>0.04</v>
       </c>
       <c r="V4" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="W4" s="3">
         <v>300</v>
@@ -1790,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="3">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB73A67-ACE2-4501-9157-BB4BA6A85395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BAC7F-70BF-445C-910C-33816342C1A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>RETT</t>
   </si>
@@ -219,6 +219,33 @@
   </si>
   <si>
     <t>carryforwardyrs</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Unit 3</t>
+  </si>
+  <si>
+    <t>Unit 4</t>
+  </si>
+  <si>
+    <t>Unit 5</t>
+  </si>
+  <si>
+    <t>Unit 6</t>
+  </si>
+  <si>
+    <t>TurtleWerks</t>
+  </si>
+  <si>
+    <t>Moose Manicure</t>
+  </si>
+  <si>
+    <t>Dolphin Daycare</t>
+  </si>
+  <si>
+    <t>Albatros Assortments</t>
   </si>
 </sst>
 </file>
@@ -230,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +388,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1082,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,13 +1340,13 @@
         <v>12</v>
       </c>
       <c r="H3" s="2">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="I3" s="2">
         <v>12</v>
       </c>
       <c r="J3" s="2">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="K3" s="5">
         <v>1.7</v>
@@ -1322,13 +1355,13 @@
         <v>1.2</v>
       </c>
       <c r="M3">
-        <v>8.9290000000000003</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="N3">
         <v>3</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q3">
         <v>7.0000000000000007E-2</v>
@@ -1349,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1358,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="AB3" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="AC3">
         <v>0.5</v>
@@ -1381,13 +1414,13 @@
         <v>12</v>
       </c>
       <c r="H4" s="2">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="I4" s="2">
         <v>12</v>
       </c>
       <c r="J4" s="2">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="K4" s="5">
         <v>1.7</v>
@@ -1396,10 +1429,10 @@
         <v>1.3</v>
       </c>
       <c r="M4">
-        <v>9.4920000000000009</v>
+        <v>8.25</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>15</v>
@@ -1460,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1477,7 +1510,7 @@
     <col min="7" max="7" width="16.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
@@ -1489,7 +1522,7 @@
     <col min="19" max="19" width="16.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.54296875" style="3" customWidth="1"/>
     <col min="25" max="16384" width="8.81640625" style="3"/>
@@ -1651,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>2019</v>
@@ -1716,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>2018</v>
@@ -1770,45 +1803,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
       <c r="F5" s="3">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G5" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3">
-        <v>1400000</v>
+        <v>175500</v>
       </c>
       <c r="L5" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
       </c>
       <c r="N5" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="O5" s="3">
         <v>1</v>
@@ -1820,22 +1853,283 @@
         <v>7</v>
       </c>
       <c r="T5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>585</v>
+      </c>
+      <c r="W5" s="3">
+        <v>300</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2024</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="3">
+        <v>219000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7</v>
+      </c>
+      <c r="T6" s="3">
+        <v>-6</v>
+      </c>
+      <c r="U6" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V6" s="3">
+        <v>730</v>
+      </c>
+      <c r="W6" s="3">
+        <v>300</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="3">
         <v>9</v>
       </c>
-      <c r="U5" s="3">
+      <c r="H7" s="3">
+        <v>2025</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="3">
+        <v>211500</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>60</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>7</v>
+      </c>
+      <c r="T7" s="3">
+        <v>-11</v>
+      </c>
+      <c r="U7" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>705</v>
+      </c>
+      <c r="W7" s="3">
+        <v>300</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2026</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="3">
+        <v>345000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-16</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1150</v>
+      </c>
+      <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2050</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>180</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>9</v>
+      </c>
+      <c r="U9" s="3">
         <v>0.03</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V9" s="3">
         <v>8000</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W9" s="3">
         <v>175</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X9" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BAC7F-70BF-445C-910C-33816342C1A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887D9D42-97DA-45EF-A14E-7CA63779B986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>RETT</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>Albatros Assortments</t>
+  </si>
+  <si>
+    <t>OGANICA</t>
+  </si>
+  <si>
+    <t>Vaartkade 3</t>
+  </si>
+  <si>
+    <t>Galgewater 1A4</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1330,6 +1339,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>1.7</v>
       </c>
       <c r="L3" s="5">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
         <v>4.6500000000000004</v>
@@ -1394,7 +1406,7 @@
         <v>62</v>
       </c>
       <c r="AC3">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -1469,6 +1481,171 @@
       </c>
       <c r="AC4">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2030</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2021</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>2030</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>2035</v>
+      </c>
+      <c r="K6">
+        <v>1.7</v>
+      </c>
+      <c r="L6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M6">
+        <v>5.65</v>
+      </c>
+      <c r="N6">
+        <v>3.2</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7</v>
+      </c>
+      <c r="U6">
+        <v>0.18</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>17.5</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>2030</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>2035</v>
+      </c>
+      <c r="K7">
+        <v>1.7</v>
+      </c>
+      <c r="L7">
+        <v>2.9</v>
+      </c>
+      <c r="M7">
+        <v>5.75</v>
+      </c>
+      <c r="N7">
+        <v>2.9</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.21</v>
+      </c>
+      <c r="S7">
+        <v>0.65</v>
+      </c>
+      <c r="U7">
+        <v>0.2</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
@@ -1496,7 +1673,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887D9D42-97DA-45EF-A14E-7CA63779B986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB65544-52B0-4BAE-A274-2F51D52EA5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>RETT</t>
   </si>
@@ -255,6 +255,36 @@
   </si>
   <si>
     <t>Galgewater 1A4</t>
+  </si>
+  <si>
+    <t>PercentIncomeToSell</t>
+  </si>
+  <si>
+    <t>DiscountRate</t>
+  </si>
+  <si>
+    <t>CPI short term rate</t>
+  </si>
+  <si>
+    <t>CPI Short Term Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPI Long Term </t>
+  </si>
+  <si>
+    <t>ERV short term rate</t>
+  </si>
+  <si>
+    <t>ERV Short Term Period</t>
+  </si>
+  <si>
+    <t>ERV Transition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERV Long Term </t>
+  </si>
+  <si>
+    <t>CPI Transition period</t>
   </si>
 </sst>
 </file>
@@ -750,7 +780,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -766,6 +796,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1122,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1146,21 +1177,21 @@
     <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.7265625" customWidth="1"/>
     <col min="19" max="19" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" customWidth="1"/>
     <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1248,8 +1279,29 @@
       <c r="AC1">
         <v>28</v>
       </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1278,61 +1330,85 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AJ2" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1361,55 +1437,73 @@
         <v>2035</v>
       </c>
       <c r="K3" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="L3" s="7">
+        <v>30</v>
+      </c>
+      <c r="M3" s="7">
+        <v>48</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="O3" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>120</v>
+      </c>
+      <c r="R3" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>50</v>
+      </c>
+      <c r="AA3">
+        <v>15</v>
+      </c>
+      <c r="AB3">
+        <v>45</v>
+      </c>
+      <c r="AC3">
         <v>1.7</v>
       </c>
-      <c r="L3" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="M3">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.75</v>
-      </c>
-      <c r="U3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="AD3">
         <v>28</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
         <v>6</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AH3" t="s">
         <v>62</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1435,55 +1529,73 @@
         <v>2040</v>
       </c>
       <c r="K4" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="L4" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="L4" s="7">
+        <v>30</v>
+      </c>
+      <c r="M4" s="7">
+        <v>48</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="O4" s="5">
         <v>1.3</v>
       </c>
-      <c r="M4">
+      <c r="P4" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>50</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
         <v>8.25</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>15</v>
       </c>
-      <c r="Q4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R4">
+      <c r="W4">
+        <v>7</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>0.75</v>
-      </c>
-      <c r="U4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V4">
+      <c r="Y4">
+        <v>50</v>
+      </c>
+      <c r="AA4">
+        <v>15</v>
+      </c>
+      <c r="AB4">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="AC4">
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>6</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
         <v>6</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AH4" t="s">
         <v>4</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1508,8 +1620,25 @@
       <c r="J5">
         <v>2035</v>
       </c>
+      <c r="K5" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="L5" s="7">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7">
+        <v>48</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="Y5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1537,56 +1666,67 @@
       <c r="J6">
         <v>2035</v>
       </c>
-      <c r="K6">
-        <v>1.7</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="L6" s="7">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>48</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="O6">
         <v>2.4500000000000002</v>
       </c>
-      <c r="M6">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="S6">
         <v>5.65</v>
       </c>
-      <c r="N6">
+      <c r="T6">
         <v>3.2</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>10</v>
       </c>
-      <c r="Q6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R6">
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>0.7</v>
-      </c>
-      <c r="U6">
-        <v>0.18</v>
-      </c>
-      <c r="V6">
+      <c r="Y6">
+        <v>50</v>
+      </c>
+      <c r="AA6">
+        <v>18</v>
+      </c>
+      <c r="AB6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="AC6">
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>17.5</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
         <v>6</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>62</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1614,41 +1754,52 @@
       <c r="J7">
         <v>2035</v>
       </c>
-      <c r="K7">
-        <v>1.7</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="L7" s="7">
+        <v>30</v>
+      </c>
+      <c r="M7" s="7">
+        <v>48</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="O7">
         <v>2.9</v>
       </c>
-      <c r="M7">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="S7">
         <v>5.75</v>
       </c>
-      <c r="N7">
+      <c r="T7">
         <v>2.9</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>10</v>
       </c>
-      <c r="Q7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R7">
-        <v>0.21</v>
-      </c>
-      <c r="S7">
-        <v>0.65</v>
-      </c>
-      <c r="U7">
-        <v>0.2</v>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>21</v>
       </c>
       <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
+        <v>50</v>
+      </c>
+      <c r="AA7">
+        <v>20</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="32040" windowWidth="57840" xWindow="-120" yWindow="-120"/>
+    <workbookView windowHeight="31920" windowWidth="57840" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>RETT</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Albatros Assortments</t>
   </si>
   <si>
-    <t>OGANICA</t>
-  </si>
-  <si>
     <t>Vaartkade 3</t>
   </si>
   <si>
@@ -399,6 +396,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>OGANICA North</t>
+  </si>
+  <si>
+    <t>OGANICA South</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>? object:null ?</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="BD6" sqref="BD6"/>
+    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="S1" xSplit="3"/>
+      <selection activeCell="AH6" pane="topRight" sqref="AH6:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -1297,7 +1307,7 @@
     <col bestFit="true" customWidth="true" max="8" min="8" style="7" width="9.7109375"/>
     <col bestFit="true" customWidth="true" max="9" min="9" style="7" width="10.5703125"/>
     <col bestFit="true" customWidth="true" max="10" min="10" style="7" width="8.7109375"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" style="4" width="16.5703125"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" style="4" width="18.42578125"/>
     <col bestFit="true" customWidth="true" max="12" min="12" style="7" width="19.140625"/>
     <col bestFit="true" customWidth="true" max="13" min="13" style="7" width="18.42578125"/>
     <col bestFit="true" customWidth="true" max="14" min="14" style="4" width="12.5703125"/>
@@ -1309,9 +1319,9 @@
     <col bestFit="true" customWidth="true" max="20" min="20" style="4" width="9.5703125"/>
     <col bestFit="true" customWidth="true" max="21" min="21" style="4" width="8.85546875"/>
     <col bestFit="true" customWidth="true" max="22" min="22" style="7" width="11.140625"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" style="4" width="6"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" style="4" width="21"/>
     <col bestFit="true" customWidth="true" max="24" min="24" style="4" width="7"/>
-    <col bestFit="true" customWidth="true" max="25" min="25" style="4" width="12.28515625"/>
+    <col bestFit="true" customWidth="true" max="25" min="25" style="4" width="17.140625"/>
     <col bestFit="true" customWidth="true" max="26" min="26" style="4" width="11.28515625"/>
     <col bestFit="true" customWidth="true" max="27" min="27" style="4" width="10.42578125"/>
     <col bestFit="true" customWidth="true" max="28" min="28" style="4" width="7"/>
@@ -1321,13 +1331,13 @@
     <col bestFit="true" customWidth="true" max="32" min="32" style="7" width="14.28515625"/>
     <col bestFit="true" customWidth="true" max="33" min="33" style="4" width="18.42578125"/>
     <col bestFit="true" customWidth="true" max="34" min="34" style="4" width="9.5703125"/>
-    <col bestFit="true" customWidth="true" max="35" min="35" style="4" width="5.5703125"/>
+    <col bestFit="true" customWidth="true" max="35" min="35" style="4" width="6"/>
     <col bestFit="true" customWidth="true" max="36" min="36" style="4" width="11.85546875"/>
     <col bestFit="true" customWidth="true" max="37" min="37" style="4" width="4.7109375"/>
     <col bestFit="true" customWidth="true" max="38" min="38" style="4" width="7.42578125"/>
     <col bestFit="true" customWidth="true" max="39" min="39" style="4" width="15.7109375"/>
-    <col bestFit="true" customWidth="true" max="40" min="40" style="4" width="6.5703125"/>
-    <col bestFit="true" customWidth="true" max="41" min="41" style="9" width="8.5703125"/>
+    <col bestFit="true" customWidth="true" max="40" min="40" style="4" width="9.5703125"/>
+    <col bestFit="true" customWidth="true" max="41" min="41" style="9" width="9.140625"/>
     <col bestFit="true" customWidth="true" max="42" min="42" style="4" width="13.42578125"/>
     <col bestFit="true" customWidth="true" max="43" min="43" style="4" width="9.42578125"/>
     <col bestFit="true" customWidth="true" max="44" min="44" style="4" width="15.140625"/>
@@ -1545,28 +1555,28 @@
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>18</v>
@@ -1611,7 +1621,7 @@
         <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>3</v>
@@ -1620,126 +1630,123 @@
         <v>58</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BD2" s="1" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3" spans="1:56">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2021</v>
-      </c>
-      <c r="G3" s="5">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2030</v>
-      </c>
-      <c r="I3" s="5">
-        <v>12</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2035</v>
+    <row r="3" spans="1:56" s="1" customFormat="true">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="O3" s="6">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R3" s="6">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6">
-        <v>4.65</v>
+        <v>0</v>
       </c>
       <c r="T3" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="5">
@@ -1752,33 +1759,31 @@
         <v>0</v>
       </c>
       <c r="Y3" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="6">
-        <v>1.7000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="6">
-        <v>28.000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="6">
         <v>0</v>
       </c>
-      <c r="AH3" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="AH3" s="6"/>
       <c r="AI3" s="6">
         <v>0</v>
       </c>
@@ -1786,74 +1791,76 @@
         <v>0</v>
       </c>
       <c r="AK3" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="8">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="9">
         <v>0</v>
       </c>
       <c r="AP3" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="8">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="8">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="8">
         <v>0</v>
       </c>
       <c r="BC3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:56">
       <c r="B4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -1864,47 +1871,47 @@
         <v>12</v>
       </c>
       <c r="H4" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="I4" s="5">
         <v>12</v>
       </c>
       <c r="J4" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="K4" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6">
-        <v>1.7000000000000002</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W4" s="6">
         <v>0</v>
@@ -1913,26 +1920,26 @@
         <v>0</v>
       </c>
       <c r="Y4" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="6">
         <v>0</v>
@@ -1944,77 +1951,79 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="8">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="8">
         <v>0</v>
       </c>
       <c r="BC4" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:56">
       <c r="B5" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
@@ -2034,42 +2043,76 @@
         <v>2035</v>
       </c>
       <c r="K5" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
       <c r="U5" s="6"/>
-      <c r="V5" s="5"/>
+      <c r="V5" s="5">
+        <v>10</v>
+      </c>
       <c r="W5" s="6">
-        <v>7</v>
-      </c>
-      <c r="X5" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
       <c r="Y5" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>0</v>
+      </c>
       <c r="AJ5" s="6">
         <v>0</v>
       </c>
@@ -2125,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="4">
         <v>0</v>
@@ -2136,10 +2179,10 @@
     </row>
     <row r="6" spans="1:56">
       <c r="B6" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2175,22 +2218,22 @@
         <v>1.9</v>
       </c>
       <c r="O6" s="6">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P6" s="5">
         <v>48</v>
       </c>
       <c r="Q6" s="5">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="R6" s="6">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="S6" s="6">
-        <v>5.25</v>
+        <v>4.65</v>
       </c>
       <c r="T6" s="6">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="5">
@@ -2210,13 +2253,13 @@
         <v>15</v>
       </c>
       <c r="AB6" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC6" s="6">
         <v>1.9</v>
       </c>
       <c r="AD6" s="6">
-        <v>15</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="AE6" s="5">
         <v>1</v>
@@ -2237,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AK6" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL6" s="5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AM6" s="8">
         <v>100</v>
@@ -2252,46 +2295,46 @@
         <v>0</v>
       </c>
       <c r="AP6" s="8">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="8">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR6" s="8">
-        <v>10</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="AS6" s="8">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AT6" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV6" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW6" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AX6" s="8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AY6" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ6" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA6" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="BB6" s="8">
         <v>0</v>
       </c>
       <c r="BC6" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BD6" s="4">
         <v>100</v>
@@ -2299,10 +2342,10 @@
     </row>
     <row r="7" spans="1:56">
       <c r="B7" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -2317,16 +2360,16 @@
         <v>12</v>
       </c>
       <c r="H7" s="5">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="I7" s="5">
         <v>12</v>
       </c>
       <c r="J7" s="5">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="K7" s="6">
-        <v>3.5000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="L7" s="5">
         <v>18</v>
@@ -2335,51 +2378,51 @@
         <v>18</v>
       </c>
       <c r="N7" s="6">
-        <v>1.7000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="O7" s="6">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="P7" s="5">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="5">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="R7" s="6">
         <v>1.9</v>
       </c>
       <c r="S7" s="6">
-        <v>5.75</v>
+        <v>5.1</v>
       </c>
       <c r="T7" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="5">
         <v>10</v>
       </c>
       <c r="W7" s="6">
-        <v>7.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="X7" s="6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="6">
         <v>50</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="6">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AC7" s="6">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="AD7" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE7" s="5">
         <v>1</v>
@@ -2400,64 +2443,390 @@
         <v>0</v>
       </c>
       <c r="AK7" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AL7" s="5">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="AM7" s="8">
         <v>100</v>
       </c>
       <c r="AN7" s="8">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AO7" s="9">
         <v>0</v>
       </c>
       <c r="AP7" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AQ7" s="8">
         <v>1.5</v>
       </c>
-      <c r="AQ7" s="8">
-        <v>2</v>
-      </c>
       <c r="AR7" s="8">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="AS7" s="8">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" s="8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU7" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV7" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW7" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AX7" s="8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AY7" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ7" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA7" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="BB7" s="8">
         <v>0</v>
       </c>
       <c r="BC7" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD7" s="4">
         <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2030</v>
+      </c>
+      <c r="I8" s="5">
+        <v>12</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2035</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L8" s="5">
+        <v>18</v>
+      </c>
+      <c r="M8" s="5">
+        <v>18</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O8" s="6">
+        <v>3.400000000000001</v>
+      </c>
+      <c r="P8" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>24</v>
+      </c>
+      <c r="R8" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="S8" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="T8" s="6">
+        <v>4</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="5">
+        <v>10</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>65</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>6</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2030</v>
+      </c>
+      <c r="I9" s="5">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2035</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>18</v>
+      </c>
+      <c r="M9" s="5">
+        <v>18</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="P9" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>24</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>4.9</v>
+      </c>
+      <c r="T9" s="6">
+        <v>5</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="5">
+        <v>10</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>65</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>6</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2467,42 +2836,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" style="2" width="2"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" style="2" width="9"/>
-    <col bestFit="true" customWidth="true" max="3" min="3" style="2" width="7.140625"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" style="2" width="17"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" style="2" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="6" min="6" style="2" width="16.140625"/>
-    <col bestFit="true" customWidth="true" max="7" min="7" style="2" width="17.42578125"/>
-    <col bestFit="true" customWidth="true" max="8" min="8" style="2" width="15.28515625"/>
-    <col bestFit="true" customWidth="true" max="9" min="9" style="2" width="11"/>
-    <col bestFit="true" customWidth="true" max="10" min="10" style="2" width="20.28515625"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" style="2" width="12.7109375"/>
-    <col bestFit="true" customWidth="true" max="12" min="12" style="2" width="10.7109375"/>
-    <col bestFit="true" customWidth="true" max="13" min="13" style="2" width="18.42578125"/>
-    <col bestFit="true" customWidth="true" max="14" min="14" style="2" width="12.85546875"/>
-    <col bestFit="true" customWidth="true" max="15" min="15" style="2" width="10.7109375"/>
-    <col bestFit="true" customWidth="true" max="16" min="16" style="2" width="11.28515625"/>
-    <col bestFit="true" customWidth="true" max="17" min="17" style="2" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="18" min="18" style="2" width="18.140625"/>
-    <col bestFit="true" customWidth="true" max="19" min="19" style="2" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="20" min="20" style="2" width="5.140625"/>
-    <col bestFit="true" customWidth="true" max="21" min="21" style="2" width="13.42578125"/>
-    <col bestFit="true" customWidth="true" max="22" min="22" style="2" width="8.5703125"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" style="2" width="11.5703125"/>
-    <col bestFit="true" customWidth="true" max="24" min="24" style="2" width="17.5703125"/>
-    <col max="16384" min="25" style="2" width="45.85546875"/>
+    <col min="1" max="1" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="45.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2576,7 +2945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2647,7 +3016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2686,7 +3055,7 @@
       </c>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -2725,7 +3094,7 @@
       </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -2764,7 +3133,7 @@
       </c>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -2803,7 +3172,7 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -2842,7 +3211,7 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -2881,7 +3250,7 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -2920,7 +3289,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -2946,7 +3315,7 @@
         <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="2">
         <v>22080.48</v>
@@ -2959,12 +3328,12 @@
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -2985,7 +3354,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="2">
         <v>19425</v>
@@ -2997,12 +3366,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -3023,7 +3392,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" s="2">
         <v>25550</v>
@@ -3035,7 +3404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -3061,7 +3430,7 @@
         <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="2">
         <v>21000</v>
@@ -3074,7 +3443,7 @@
       </c>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -3100,7 +3469,7 @@
         <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="2">
         <v>21000</v>
@@ -3112,7 +3481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -3138,7 +3507,7 @@
         <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="2">
         <v>21000</v>
@@ -3150,7 +3519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -3176,7 +3545,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16" s="2">
         <v>21000</v>
@@ -3188,7 +3557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -3214,7 +3583,7 @@
         <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K17" s="2">
         <v>21000</v>
@@ -3226,7 +3595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -3252,7 +3621,7 @@
         <v>46</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" s="2">
         <v>21000</v>
@@ -3264,12 +3633,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -3290,7 +3659,7 @@
         <v>46</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" s="2">
         <v>21000</v>
@@ -3302,12 +3671,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -3328,7 +3697,7 @@
         <v>46</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="2">
         <v>21000</v>
@@ -3340,12 +3709,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -3366,7 +3735,7 @@
         <v>46</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K21" s="2">
         <v>21000</v>
@@ -3378,12 +3747,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -3404,7 +3773,7 @@
         <v>46</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K22" s="2">
         <v>21000</v>
@@ -3416,12 +3785,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -3442,7 +3811,7 @@
         <v>46</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K23" s="2">
         <v>21000</v>
@@ -3454,12 +3823,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -3480,7 +3849,7 @@
         <v>46</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" s="2">
         <v>21000</v>
@@ -3492,12 +3861,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3515,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -3532,7 +3901,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="31920" windowWidth="57840" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="32040" windowWidth="57840" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
   <si>
     <t>RETT</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Strategy</t>
   </si>
   <si>
-    <t>Denemarkenweg 1</t>
-  </si>
-  <si>
     <t>MasterID</t>
   </si>
   <si>
@@ -329,12 +326,6 @@
     <t>IncentivesPercent</t>
   </si>
   <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>Galgewater 1</t>
   </si>
   <si>
@@ -407,7 +398,43 @@
     <t>Balloon</t>
   </si>
   <si>
-    <t>? object:null ?</t>
+    <t>Industrial 2</t>
+  </si>
+  <si>
+    <t>Industrial 3</t>
+  </si>
+  <si>
+    <t>Industrial 4</t>
+  </si>
+  <si>
+    <t>Industrial 5</t>
+  </si>
+  <si>
+    <t>Suite A</t>
+  </si>
+  <si>
+    <t>OGN Industries</t>
+  </si>
+  <si>
+    <t>ACINAGO</t>
+  </si>
+  <si>
+    <t>OGANICA</t>
+  </si>
+  <si>
+    <t>Industrial 1</t>
+  </si>
+  <si>
+    <t>Suite 100</t>
+  </si>
+  <si>
+    <t>Suite 200</t>
+  </si>
+  <si>
+    <t>Suite 300</t>
+  </si>
+  <si>
+    <t>Suite 400</t>
   </si>
 </sst>
 </file>
@@ -1288,11 +1315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="S1" xSplit="3"/>
-      <selection activeCell="AH6" pane="topRight" sqref="AH6:AH9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="AP1" xSplit="3"/>
+      <selection activeCell="BH6" pane="topRight" sqref="BH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -1528,67 +1555,67 @@
     </row>
     <row r="2" spans="1:56" s="1" customFormat="true" ht="30">
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>0</v>
@@ -1597,100 +1624,100 @@
         <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AG2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:56" s="1" customFormat="true">
@@ -1783,7 +1810,9 @@
       <c r="AG3" s="6">
         <v>0</v>
       </c>
-      <c r="AH3" s="6"/>
+      <c r="AH3" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AI3" s="6">
         <v>0</v>
       </c>
@@ -1841,9 +1870,7 @@
       <c r="BA3" s="8">
         <v>0</v>
       </c>
-      <c r="BB3" s="8">
-        <v>0</v>
-      </c>
+      <c r="BB3" s="8"/>
       <c r="BC3" s="4">
         <v>0</v>
       </c>
@@ -1856,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1945,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI4" s="6">
         <v>0</v>
@@ -2004,9 +2031,7 @@
       <c r="BA4" s="8">
         <v>0</v>
       </c>
-      <c r="BB4" s="8">
-        <v>0</v>
-      </c>
+      <c r="BB4" s="8"/>
       <c r="BC4" s="4">
         <v>0</v>
       </c>
@@ -2019,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2108,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="AI5" s="6">
         <v>0</v>
@@ -2167,9 +2192,7 @@
       <c r="BA5" s="8">
         <v>0</v>
       </c>
-      <c r="BB5" s="8">
-        <v>0</v>
-      </c>
+      <c r="BB5" s="8"/>
       <c r="BC5" s="4">
         <v>0</v>
       </c>
@@ -2182,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2227,13 +2250,13 @@
         <v>36</v>
       </c>
       <c r="R6" s="6">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S6" s="6">
-        <v>4.65</v>
+        <v>4.95</v>
       </c>
       <c r="T6" s="6">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="5">
@@ -2256,7 +2279,7 @@
         <v>50</v>
       </c>
       <c r="AC6" s="6">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD6" s="6">
         <v>28.000000000000004</v>
@@ -2271,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI6" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ6" s="6">
         <v>0</v>
@@ -2295,46 +2318,46 @@
         <v>0</v>
       </c>
       <c r="AP6" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>6</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BC6" s="4">
         <v>3</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="AR6" s="8">
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="AS6" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="AT6" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AU6" s="8">
-        <v>6</v>
-      </c>
-      <c r="AV6" s="8">
-        <v>6</v>
-      </c>
-      <c r="AW6" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="AX6" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AY6" s="8">
-        <v>6</v>
-      </c>
-      <c r="AZ6" s="8">
-        <v>6</v>
-      </c>
-      <c r="BA6" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="BB6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="4">
-        <v>12</v>
       </c>
       <c r="BD6" s="4">
         <v>100</v>
@@ -2345,10 +2368,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -2381,7 +2404,7 @@
         <v>1.9</v>
       </c>
       <c r="O7" s="6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P7" s="5">
         <v>24</v>
@@ -2393,14 +2416,14 @@
         <v>1.9</v>
       </c>
       <c r="S7" s="6">
-        <v>5.1</v>
+        <v>8.25</v>
       </c>
       <c r="T7" s="6">
         <v>3</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W7" s="6">
         <v>0</v>
@@ -2416,10 +2439,10 @@
         <v>15</v>
       </c>
       <c r="AB7" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="6">
         <v>6</v>
@@ -2431,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="AG7" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="AI7" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ7" s="6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AK7" s="5">
         <v>12</v>
@@ -2455,10 +2478,10 @@
         <v>65</v>
       </c>
       <c r="AO7" s="9">
-        <v>0</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="AP7" s="8">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AQ7" s="8">
         <v>1.5</v>
@@ -2467,10 +2490,10 @@
         <v>2.5</v>
       </c>
       <c r="AS7" s="8">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AT7" s="8">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AU7" s="8">
         <v>6</v>
@@ -2479,23 +2502,21 @@
         <v>6</v>
       </c>
       <c r="AW7" s="8">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AX7" s="8">
-        <v>0.4</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="AY7" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ7" s="8">
         <v>6</v>
       </c>
       <c r="BA7" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="BB7" s="8">
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="BB7" s="8"/>
       <c r="BC7" s="4">
         <v>6</v>
       </c>
@@ -2508,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -2597,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI8" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ8" s="6">
         <v>0</v>
@@ -2612,16 +2633,16 @@
         <v>12</v>
       </c>
       <c r="AM8" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AN8" s="8">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO8" s="9">
         <v>0</v>
       </c>
       <c r="AP8" s="8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AQ8" s="8">
         <v>2</v>
@@ -2630,7 +2651,7 @@
         <v>5.5</v>
       </c>
       <c r="AS8" s="8">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT8" s="8">
         <v>0.7</v>
@@ -2642,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="AW8" s="8">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AX8" s="8">
         <v>0.7</v>
@@ -2654,16 +2675,16 @@
         <v>6</v>
       </c>
       <c r="BA8" s="8">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="BB8" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BC8" s="4">
         <v>1</v>
       </c>
       <c r="BD8" s="4">
-        <v>0.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:56">
@@ -2671,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -2707,7 +2728,7 @@
         <v>1.9</v>
       </c>
       <c r="O9" s="6">
-        <v>3.600000000000001</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="P9" s="5">
         <v>36</v>
@@ -2719,7 +2740,7 @@
         <v>2.2</v>
       </c>
       <c r="S9" s="6">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T9" s="6">
         <v>5</v>
@@ -2742,10 +2763,10 @@
         <v>15</v>
       </c>
       <c r="AB9" s="6">
-        <v>40</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="AC9" s="6">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AD9" s="6">
         <v>19</v>
@@ -2760,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI9" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ9" s="6">
         <v>0</v>
       </c>
       <c r="AK9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL9" s="5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AM9" s="8">
         <v>100</v>
@@ -2787,16 +2808,16 @@
         <v>2.5</v>
       </c>
       <c r="AQ9" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR9" s="8">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AS9" s="8">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="AT9" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AU9" s="8">
         <v>6</v>
@@ -2808,7 +2829,7 @@
         <v>0.25</v>
       </c>
       <c r="AX9" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AY9" s="8">
         <v>6</v>
@@ -2820,13 +2841,654 @@
         <v>0.25</v>
       </c>
       <c r="BB9" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BC9" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="BD9" s="4">
+      <c r="F10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2035</v>
+      </c>
+      <c r="I10" s="5">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2035</v>
+      </c>
+      <c r="K10" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>18</v>
+      </c>
+      <c r="M10" s="5">
+        <v>18</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O10" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="P10" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>24</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="S10" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="T10" s="6">
+        <v>4</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="5">
+        <v>15</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>100</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>180</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>65</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>60</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AT10" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2035</v>
+      </c>
+      <c r="I11" s="5">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2035</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>18</v>
+      </c>
+      <c r="M11" s="5">
+        <v>18</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>24</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="S11" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="T11" s="6">
+        <v>5</v>
+      </c>
+      <c r="V11" s="5">
+        <v>15</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>180</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>65</v>
+      </c>
+      <c r="AO11" s="9">
         <v>75</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>9</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA11" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G12" s="5">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2035</v>
+      </c>
+      <c r="I12" s="5">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2035</v>
+      </c>
+      <c r="K12" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>18</v>
+      </c>
+      <c r="M12" s="5">
+        <v>18</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O12" s="6">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="P12" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>24</v>
+      </c>
+      <c r="R12" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S12" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T12" s="6">
+        <v>5</v>
+      </c>
+      <c r="V12" s="5">
+        <v>15</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>100</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>180</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>65</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV12" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW12" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>9</v>
+      </c>
+      <c r="AZ12" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD12" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2035</v>
+      </c>
+      <c r="I13" s="5">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2035</v>
+      </c>
+      <c r="K13" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="L13" s="5">
+        <v>18</v>
+      </c>
+      <c r="M13" s="5">
+        <v>18</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="P13" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>24</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S13" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T13" s="6">
+        <v>5</v>
+      </c>
+      <c r="V13" s="5">
+        <v>15</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>180</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>65</v>
+      </c>
+      <c r="AO13" s="9">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>9</v>
+      </c>
+      <c r="AZ13" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA13" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2836,42 +3498,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="45.85546875" style="2"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" style="2" width="2"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" style="2" width="9"/>
+    <col customWidth="true" max="3" min="3" style="2" width="11.28515625"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" style="2" width="17"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" style="2" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" style="2" width="16.140625"/>
+    <col bestFit="true" customWidth="true" max="7" min="7" style="2" width="17.42578125"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" style="2" width="15.28515625"/>
+    <col bestFit="true" customWidth="true" max="9" min="9" style="2" width="11"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" style="2" width="20.28515625"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" style="2" width="12.7109375"/>
+    <col bestFit="true" customWidth="true" max="12" min="12" style="2" width="10.7109375"/>
+    <col bestFit="true" customWidth="true" max="13" min="13" style="2" width="18.42578125"/>
+    <col bestFit="true" customWidth="true" max="14" min="14" style="2" width="12.85546875"/>
+    <col bestFit="true" customWidth="true" max="15" min="15" style="2" width="10.7109375"/>
+    <col bestFit="true" customWidth="true" max="16" min="16" style="2" width="11.28515625"/>
+    <col bestFit="true" customWidth="true" max="17" min="17" style="2" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="18" min="18" style="2" width="18.140625"/>
+    <col bestFit="true" customWidth="true" max="19" min="19" style="2" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="20" min="20" style="2" width="5.140625"/>
+    <col bestFit="true" customWidth="true" max="21" min="21" style="2" width="13.42578125"/>
+    <col bestFit="true" customWidth="true" max="22" min="22" style="2" width="8.5703125"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" style="2" width="11.5703125"/>
+    <col bestFit="true" customWidth="true" max="24" min="24" style="2" width="17.5703125"/>
+    <col max="16384" min="25" style="2" width="45.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2945,83 +3607,83 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="V2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3039,10 +3701,10 @@
         <v>2025</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2">
         <v>300000</v>
@@ -3055,12 +3717,12 @@
       </c>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3078,10 +3740,10 @@
         <v>2021</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2">
         <v>300000</v>
@@ -3094,12 +3756,12 @@
       </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3117,10 +3779,10 @@
         <v>2022</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2">
         <v>175500</v>
@@ -3133,12 +3795,12 @@
       </c>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3156,10 +3818,10 @@
         <v>2024</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2">
         <v>219000</v>
@@ -3172,12 +3834,12 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3195,10 +3857,10 @@
         <v>2025</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2">
         <v>211500</v>
@@ -3211,12 +3873,12 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3234,10 +3896,10 @@
         <v>2026</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2">
         <v>345000</v>
@@ -3250,12 +3912,12 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3273,10 +3935,10 @@
         <v>2050</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2">
         <v>1400000</v>
@@ -3289,12 +3951,12 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -3312,28 +3974,28 @@
         <v>2022</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K10" s="2">
-        <v>22080.48</v>
+        <v>220800</v>
       </c>
       <c r="V10" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W10" s="2">
         <v>18</v>
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -3348,30 +4010,30 @@
         <v>10</v>
       </c>
       <c r="H11" s="2">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K11" s="2">
-        <v>19425</v>
+        <v>194250</v>
       </c>
       <c r="V11" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="W11" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -3386,30 +4048,30 @@
         <v>9</v>
       </c>
       <c r="H12" s="2">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K12" s="2">
-        <v>25550</v>
+        <v>255500</v>
       </c>
       <c r="V12" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W12" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -3427,28 +4089,28 @@
         <v>2021</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K13" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V13" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W13" s="2">
         <v>19</v>
       </c>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -3466,27 +4128,27 @@
         <v>2021</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K14" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V14" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W14" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -3504,27 +4166,27 @@
         <v>2021</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K15" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V15" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W15" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -3542,27 +4204,27 @@
         <v>2021</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V16" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W16" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23">
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -3580,27 +4242,27 @@
         <v>2021</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K17" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V17" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W17" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23">
       <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -3618,27 +4280,27 @@
         <v>2021</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K18" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V18" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W18" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23">
       <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -3656,27 +4318,27 @@
         <v>2021</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K19" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V19" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W19" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23">
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -3694,27 +4356,27 @@
         <v>2021</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K20" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V20" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23">
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -3732,27 +4394,27 @@
         <v>2021</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K21" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V21" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W21" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -3770,27 +4432,27 @@
         <v>2021</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K22" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V22" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W22" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23">
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -3808,27 +4470,27 @@
         <v>2021</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K23" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V23" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W23" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23">
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -3846,27 +4508,27 @@
         <v>2021</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K24" s="2">
-        <v>21000</v>
+        <v>210000</v>
       </c>
       <c r="V24" s="2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="W24" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23">
       <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3884,10 +4546,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -3899,9 +4561,199 @@
         <v>30</v>
       </c>
     </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="W26" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2050</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="2">
+        <v>550000</v>
+      </c>
+      <c r="V27" s="2">
+        <v>30600</v>
+      </c>
+      <c r="W27" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2050</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="2">
+        <v>525000</v>
+      </c>
+      <c r="V28" s="2">
+        <v>27000</v>
+      </c>
+      <c r="W28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2050</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="2">
+        <v>525000</v>
+      </c>
+      <c r="V29" s="2">
+        <v>27000</v>
+      </c>
+      <c r="W29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>7500</v>
+      </c>
+      <c r="W30" s="2">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -3937,13 +4789,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>0.02</v>
@@ -3962,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>0.01</v>
@@ -3973,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>1.4E-2</v>
@@ -3984,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>1.2999999999999999E-2</v>
@@ -3995,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>1.7000000000000001E-2</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -2241,7 +2241,7 @@
         <v>1.9</v>
       </c>
       <c r="O6" s="6">
-        <v>4.2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="P6" s="5">
         <v>48</v>
@@ -2253,7 +2253,7 @@
         <v>2.4</v>
       </c>
       <c r="S6" s="6">
-        <v>4.95</v>
+        <v>4.8</v>
       </c>
       <c r="T6" s="6">
         <v>4.5</v>
@@ -2276,10 +2276,10 @@
         <v>15</v>
       </c>
       <c r="AB6" s="6">
-        <v>50</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="AC6" s="6">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD6" s="6">
         <v>28.000000000000004</v>
@@ -2324,13 +2324,13 @@
         <v>1.4</v>
       </c>
       <c r="AR6" s="8">
-        <v>4.2</v>
+        <v>3.500000000000001</v>
       </c>
       <c r="AS6" s="8">
-        <v>5.2</v>
+        <v>3.400000000000001</v>
       </c>
       <c r="AT6" s="8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" s="8">
         <v>6</v>
@@ -2339,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="AW6" s="8">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AX6" s="8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AY6" s="8">
         <v>6</v>
@@ -2351,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="BA6" s="8">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="BB6" s="8">
         <v>0.5</v>
@@ -2404,7 +2404,7 @@
         <v>1.9</v>
       </c>
       <c r="O7" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P7" s="5">
         <v>24</v>
@@ -2460,13 +2460,13 @@
         <v>122</v>
       </c>
       <c r="AI7" s="6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="6">
         <v>3.2</v>
       </c>
       <c r="AK7" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL7" s="5">
         <v>180</v>
@@ -2478,7 +2478,7 @@
         <v>65</v>
       </c>
       <c r="AO7" s="9">
-        <v>56.000000000000007</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="AP7" s="8">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>2.5</v>
       </c>
       <c r="AS7" s="8">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="AT7" s="8">
         <v>0.7</v>
@@ -2505,10 +2505,10 @@
         <v>0.25</v>
       </c>
       <c r="AX7" s="8">
-        <v>0.45000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="AY7" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ7" s="8">
         <v>6</v>
@@ -2516,9 +2516,11 @@
       <c r="BA7" s="8">
         <v>0.25</v>
       </c>
-      <c r="BB7" s="8"/>
+      <c r="BB7" s="8">
+        <v>0.5</v>
+      </c>
       <c r="BC7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="4">
         <v>100</v>
@@ -2728,7 +2730,7 @@
         <v>1.9</v>
       </c>
       <c r="O9" s="6">
-        <v>3.6000000000000005</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="P9" s="5">
         <v>36</v>
@@ -2740,7 +2742,7 @@
         <v>2.2</v>
       </c>
       <c r="S9" s="6">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="T9" s="6">
         <v>5</v>
@@ -2796,7 +2798,7 @@
         <v>60</v>
       </c>
       <c r="AM9" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="8">
         <v>65</v>
@@ -2811,7 +2813,7 @@
         <v>1.5</v>
       </c>
       <c r="AR9" s="8">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AS9" s="8">
         <v>2.9</v>
@@ -2847,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="BD9" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:56">

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="32040" windowWidth="57840" xWindow="-120" yWindow="-120"/>
+    <workbookView windowHeight="32040" windowWidth="57840" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
   <si>
     <t>RETT</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Markerkant 13 9</t>
-  </si>
-  <si>
     <t>Start_Month</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Albatros Assortments</t>
   </si>
   <si>
-    <t>Vaartkade 3</t>
-  </si>
-  <si>
     <t>PercentIncomeToSell</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>IncentivesPercent</t>
   </si>
   <si>
-    <t>Galgewater 1</t>
-  </si>
-  <si>
     <t>Tenant 1</t>
   </si>
   <si>
@@ -389,12 +380,6 @@
     <t/>
   </si>
   <si>
-    <t>OGANICA North</t>
-  </si>
-  <si>
-    <t>OGANICA South</t>
-  </si>
-  <si>
     <t>Balloon</t>
   </si>
   <si>
@@ -435,6 +420,30 @@
   </si>
   <si>
     <t>Suite 400</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>OGANICA USA</t>
+  </si>
+  <si>
+    <t>OGANICA EU</t>
+  </si>
+  <si>
+    <t>Sqft</t>
+  </si>
+  <si>
+    <t>Sqm</t>
+  </si>
+  <si>
+    <t>Small Office</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Light Industrial</t>
   </si>
 </sst>
 </file>
@@ -1315,11 +1324,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BE13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="AP1" xSplit="3"/>
-      <selection activeCell="BH6" pane="topRight" sqref="BH6"/>
+    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
+      <selection activeCell="AD6" pane="topRight" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -1383,7 +1392,7 @@
     <col max="16384" min="57" style="4" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:57">
       <c r="A1" s="4">
         <v>0</v>
       </c>
@@ -1552,8 +1561,11 @@
       <c r="BD1" s="4">
         <v>55</v>
       </c>
+      <c r="BE1" s="4">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="true" ht="30">
+    <row r="2" spans="1:57" s="1" customFormat="true" ht="30">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1564,58 +1576,58 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>0</v>
@@ -1624,103 +1636,106 @@
         <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>98</v>
+      <c r="BE2" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="1" customFormat="true">
+    <row r="3" spans="1:57" s="1" customFormat="true">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -1811,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI3" s="6">
         <v>0</v>
@@ -1878,12 +1893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:57">
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1972,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI4" s="6">
         <v>0</v>
@@ -2038,13 +2053,16 @@
       <c r="BD4" s="4">
         <v>0</v>
       </c>
+      <c r="BE4" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:57">
       <c r="B5" s="4">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2133,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AI5" s="6">
         <v>0</v>
@@ -2199,13 +2217,16 @@
       <c r="BD5" s="4">
         <v>0</v>
       </c>
+      <c r="BE5" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:57">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -2229,7 +2250,7 @@
         <v>2035</v>
       </c>
       <c r="K6" s="6">
-        <v>5.5</v>
+        <v>0.055</v>
       </c>
       <c r="L6" s="5">
         <v>18</v>
@@ -2238,22 +2259,22 @@
         <v>18</v>
       </c>
       <c r="N6" s="6">
-        <v>1.9</v>
+        <v>0.019</v>
       </c>
       <c r="O6" s="6">
-        <v>3.600000000000001</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="P6" s="5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>36</v>
       </c>
       <c r="R6" s="6">
-        <v>2.4</v>
+        <v>0.025</v>
       </c>
       <c r="S6" s="6">
-        <v>4.8</v>
+        <v>0.048</v>
       </c>
       <c r="T6" s="6">
         <v>4.5</v>
@@ -2269,20 +2290,20 @@
         <v>0</v>
       </c>
       <c r="Y6" s="6">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="AB6" s="6">
-        <v>55.00000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AC6" s="6">
-        <v>1.9</v>
+        <v>0.019</v>
       </c>
       <c r="AD6" s="6">
-        <v>28.000000000000004</v>
+        <v>0.28</v>
       </c>
       <c r="AE6" s="5">
         <v>1</v>
@@ -2294,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI6" s="6">
         <v>0.4</v>
@@ -2309,10 +2330,10 @@
         <v>60</v>
       </c>
       <c r="AM6" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="8">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="AO6" s="9">
         <v>0</v>
@@ -2324,13 +2345,13 @@
         <v>1.4</v>
       </c>
       <c r="AR6" s="8">
-        <v>3.500000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="AS6" s="8">
-        <v>3.400000000000001</v>
+        <v>0.034</v>
       </c>
       <c r="AT6" s="8">
-        <v>0.6</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU6" s="8">
         <v>6</v>
@@ -2339,10 +2360,10 @@
         <v>6</v>
       </c>
       <c r="AW6" s="8">
-        <v>0.15</v>
+        <v>0.0025</v>
       </c>
       <c r="AX6" s="8">
-        <v>0.6</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY6" s="8">
         <v>6</v>
@@ -2351,27 +2372,30 @@
         <v>6</v>
       </c>
       <c r="BA6" s="8">
-        <v>1.5</v>
+        <v>0.0025</v>
       </c>
       <c r="BB6" s="8">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="BC6" s="4">
         <v>3</v>
       </c>
       <c r="BD6" s="4">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:57">
       <c r="B7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D7" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -2383,16 +2407,16 @@
         <v>12</v>
       </c>
       <c r="H7" s="5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="I7" s="5">
         <v>12</v>
       </c>
       <c r="J7" s="5">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="K7" s="6">
-        <v>5.5</v>
+        <v>0.055</v>
       </c>
       <c r="L7" s="5">
         <v>18</v>
@@ -2401,29 +2425,29 @@
         <v>18</v>
       </c>
       <c r="N7" s="6">
-        <v>1.9</v>
+        <v>0.019</v>
       </c>
       <c r="O7" s="6">
-        <v>2.2</v>
+        <v>0.034</v>
       </c>
       <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>24</v>
       </c>
-      <c r="Q7" s="5">
-        <v>36</v>
-      </c>
       <c r="R7" s="6">
-        <v>1.9</v>
+        <v>0.021</v>
       </c>
       <c r="S7" s="6">
-        <v>8.25</v>
+        <v>0.055</v>
       </c>
       <c r="T7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W7" s="6">
         <v>0</v>
@@ -2432,20 +2456,20 @@
         <v>0</v>
       </c>
       <c r="Y7" s="6">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="AB7" s="6">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC7" s="6">
-        <v>0</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="AD7" s="6">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="AE7" s="5">
         <v>1</v>
@@ -2454,46 +2478,46 @@
         <v>6</v>
       </c>
       <c r="AG7" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="AI7" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ7" s="6">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="5">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="AM7" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="8">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="AO7" s="9">
-        <v>56.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="8">
         <v>2</v>
       </c>
-      <c r="AQ7" s="8">
-        <v>1.5</v>
-      </c>
       <c r="AR7" s="8">
-        <v>2.5</v>
+        <v>0.055</v>
       </c>
       <c r="AS7" s="8">
-        <v>0.74</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="AT7" s="8">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU7" s="8">
         <v>6</v>
@@ -2502,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="AW7" s="8">
-        <v>0.25</v>
+        <v>0.0025</v>
       </c>
       <c r="AX7" s="8">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY7" s="8">
         <v>6</v>
@@ -2514,24 +2538,27 @@
         <v>6</v>
       </c>
       <c r="BA7" s="8">
-        <v>0.25</v>
+        <v>0.0025</v>
       </c>
       <c r="BB7" s="8">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="BC7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="4">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:57">
       <c r="B8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -2555,7 +2582,7 @@
         <v>2035</v>
       </c>
       <c r="K8" s="6">
-        <v>5.5</v>
+        <v>0.055</v>
       </c>
       <c r="L8" s="5">
         <v>18</v>
@@ -2564,25 +2591,25 @@
         <v>18</v>
       </c>
       <c r="N8" s="6">
-        <v>1.9</v>
+        <v>0.019</v>
       </c>
       <c r="O8" s="6">
-        <v>3.400000000000001</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="P8" s="5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
         <v>24</v>
       </c>
       <c r="R8" s="6">
-        <v>2.1</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="S8" s="6">
-        <v>5.5</v>
+        <v>0.0495</v>
       </c>
       <c r="T8" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="5">
@@ -2595,20 +2622,20 @@
         <v>0</v>
       </c>
       <c r="Y8" s="6">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="AB8" s="6">
-        <v>55.00000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AC8" s="6">
-        <v>2.2</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="AD8" s="6">
-        <v>14.000000000000002</v>
+        <v>0.019</v>
       </c>
       <c r="AE8" s="5">
         <v>1</v>
@@ -2620,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI8" s="6">
         <v>0.4</v>
@@ -2629,75 +2656,78 @@
         <v>0</v>
       </c>
       <c r="AK8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>60</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>0.052000000000000005</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0.028999999999999998</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>0.0025</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>6</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>6</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>0.0025</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>0.005</v>
+      </c>
+      <c r="BC8" s="4">
         <v>3</v>
       </c>
-      <c r="AL8" s="5">
-        <v>12</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>100</v>
-      </c>
-      <c r="AN8" s="8">
-        <v>60</v>
-      </c>
-      <c r="AO8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="AQ8" s="8">
+      <c r="BD8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="AR8" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="AS8" s="8">
-        <v>2.2</v>
-      </c>
-      <c r="AT8" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="AU8" s="8">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="8">
-        <v>6</v>
-      </c>
-      <c r="AW8" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="AX8" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="AY8" s="8">
-        <v>6</v>
-      </c>
-      <c r="AZ8" s="8">
-        <v>6</v>
-      </c>
-      <c r="BA8" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="BB8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BC8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -2709,13 +2739,13 @@
         <v>12</v>
       </c>
       <c r="H9" s="5">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="I9" s="5">
         <v>12</v>
       </c>
       <c r="J9" s="5">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="K9" s="6">
         <v>5.5</v>
@@ -2730,26 +2760,26 @@
         <v>1.9</v>
       </c>
       <c r="O9" s="6">
-        <v>3.600000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P9" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="5">
         <v>36</v>
       </c>
-      <c r="Q9" s="5">
-        <v>24</v>
-      </c>
       <c r="R9" s="6">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="S9" s="6">
-        <v>4.95</v>
+        <v>8.25</v>
       </c>
       <c r="T9" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W9" s="6">
         <v>0</v>
@@ -2765,13 +2795,13 @@
         <v>15</v>
       </c>
       <c r="AB9" s="6">
-        <v>55.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="6">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="6">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AE9" s="5">
         <v>1</v>
@@ -2780,43 +2810,43 @@
         <v>6</v>
       </c>
       <c r="AG9" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="AI9" s="6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AK9" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AL9" s="5">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AM9" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AN9" s="8">
         <v>65</v>
       </c>
       <c r="AO9" s="9">
-        <v>0</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="AP9" s="8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ9" s="8">
         <v>1.5</v>
       </c>
       <c r="AR9" s="8">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="AS9" s="8">
-        <v>2.9</v>
+        <v>0.74</v>
       </c>
       <c r="AT9" s="8">
         <v>0.7</v>
@@ -2846,18 +2876,21 @@
         <v>0.5</v>
       </c>
       <c r="BC9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="4">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="BE9" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:57">
       <c r="B10" s="4">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="7">
         <v>6</v>
@@ -2946,7 +2979,7 @@
         <v>100</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AI10" s="6">
         <v>0</v>
@@ -3012,13 +3045,16 @@
       <c r="BD10" s="4">
         <v>100</v>
       </c>
+      <c r="BE10" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:57">
       <c r="B11" s="4">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
         <v>6</v>
@@ -3106,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AI11" s="6">
         <v>0</v>
@@ -3172,13 +3208,16 @@
       <c r="BD11" s="4">
         <v>100</v>
       </c>
+      <c r="BE11" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:57">
       <c r="B12" s="4">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7">
         <v>6</v>
@@ -3266,7 +3305,7 @@
         <v>100</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AI12" s="6">
         <v>0</v>
@@ -3332,13 +3371,16 @@
       <c r="BD12" s="4">
         <v>100</v>
       </c>
+      <c r="BE12" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:57">
       <c r="B13" s="4">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
         <v>6</v>
@@ -3426,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AI13" s="6">
         <v>0</v>
@@ -3491,6 +3533,9 @@
       </c>
       <c r="BD13" s="4">
         <v>100</v>
+      </c>
+      <c r="BE13" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3500,42 +3545,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" style="2" width="2"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" style="2" width="9"/>
-    <col customWidth="true" max="3" min="3" style="2" width="11.28515625"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" style="2" width="17"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" style="2" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="6" min="6" style="2" width="16.140625"/>
-    <col bestFit="true" customWidth="true" max="7" min="7" style="2" width="17.42578125"/>
-    <col bestFit="true" customWidth="true" max="8" min="8" style="2" width="15.28515625"/>
-    <col bestFit="true" customWidth="true" max="9" min="9" style="2" width="11"/>
-    <col bestFit="true" customWidth="true" max="10" min="10" style="2" width="20.28515625"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" style="2" width="12.7109375"/>
-    <col bestFit="true" customWidth="true" max="12" min="12" style="2" width="10.7109375"/>
-    <col bestFit="true" customWidth="true" max="13" min="13" style="2" width="18.42578125"/>
-    <col bestFit="true" customWidth="true" max="14" min="14" style="2" width="12.85546875"/>
-    <col bestFit="true" customWidth="true" max="15" min="15" style="2" width="10.7109375"/>
-    <col bestFit="true" customWidth="true" max="16" min="16" style="2" width="11.28515625"/>
-    <col bestFit="true" customWidth="true" max="17" min="17" style="2" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="18" min="18" style="2" width="18.140625"/>
-    <col bestFit="true" customWidth="true" max="19" min="19" style="2" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="20" min="20" style="2" width="5.140625"/>
-    <col bestFit="true" customWidth="true" max="21" min="21" style="2" width="13.42578125"/>
-    <col bestFit="true" customWidth="true" max="22" min="22" style="2" width="8.5703125"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" style="2" width="11.5703125"/>
-    <col bestFit="true" customWidth="true" max="24" min="24" style="2" width="17.5703125"/>
-    <col max="16384" min="25" style="2" width="45.85546875"/>
+    <col min="1" max="1" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="45.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -3609,7 +3654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3617,75 +3662,75 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="V2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3703,10 +3748,10 @@
         <v>2025</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2">
         <v>300000</v>
@@ -3719,12 +3764,12 @@
       </c>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3742,10 +3787,10 @@
         <v>2021</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2">
         <v>300000</v>
@@ -3758,12 +3803,12 @@
       </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3781,10 +3826,10 @@
         <v>2022</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2">
         <v>175500</v>
@@ -3797,12 +3842,12 @@
       </c>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3820,10 +3865,10 @@
         <v>2024</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2">
         <v>219000</v>
@@ -3836,12 +3881,12 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3859,10 +3904,10 @@
         <v>2025</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2">
         <v>211500</v>
@@ -3875,12 +3920,12 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3898,10 +3943,10 @@
         <v>2026</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2">
         <v>345000</v>
@@ -3914,12 +3959,12 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3937,10 +3982,10 @@
         <v>2050</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>1400000</v>
@@ -3953,12 +3998,12 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -3976,10 +4021,10 @@
         <v>2022</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K10" s="2">
         <v>220800</v>
@@ -3992,12 +4037,12 @@
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -4015,10 +4060,10 @@
         <v>2024</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K11" s="2">
         <v>194250</v>
@@ -4030,12 +4075,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -4053,10 +4098,10 @@
         <v>2026</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K12" s="2">
         <v>255500</v>
@@ -4068,12 +4113,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -4091,10 +4136,10 @@
         <v>2021</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K13" s="2">
         <v>210000</v>
@@ -4107,12 +4152,12 @@
       </c>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -4130,10 +4175,10 @@
         <v>2021</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K14" s="2">
         <v>210000</v>
@@ -4145,12 +4190,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -4168,10 +4213,10 @@
         <v>2021</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K15" s="2">
         <v>210000</v>
@@ -4183,12 +4228,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -4206,10 +4251,10 @@
         <v>2021</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K16" s="2">
         <v>210000</v>
@@ -4221,12 +4266,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -4244,10 +4289,10 @@
         <v>2021</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K17" s="2">
         <v>210000</v>
@@ -4259,12 +4304,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -4282,10 +4327,10 @@
         <v>2021</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K18" s="2">
         <v>210000</v>
@@ -4297,12 +4342,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -4320,10 +4365,10 @@
         <v>2021</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2">
         <v>210000</v>
@@ -4335,12 +4380,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -4358,10 +4403,10 @@
         <v>2021</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K20" s="2">
         <v>210000</v>
@@ -4373,12 +4418,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -4396,10 +4441,10 @@
         <v>2021</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K21" s="2">
         <v>210000</v>
@@ -4411,12 +4456,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -4434,10 +4479,10 @@
         <v>2021</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K22" s="2">
         <v>210000</v>
@@ -4449,12 +4494,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -4472,10 +4517,10 @@
         <v>2021</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K23" s="2">
         <v>210000</v>
@@ -4487,12 +4532,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -4510,10 +4555,10 @@
         <v>2021</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K24" s="2">
         <v>210000</v>
@@ -4525,12 +4570,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -4548,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -4563,12 +4608,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -4586,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -4601,12 +4646,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D27" s="2">
         <v>7</v>
@@ -4624,10 +4669,10 @@
         <v>2050</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K27" s="2">
         <v>550000</v>
@@ -4639,12 +4684,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2">
         <v>8</v>
@@ -4662,10 +4707,10 @@
         <v>2050</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K28" s="2">
         <v>525000</v>
@@ -4677,12 +4722,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2">
         <v>8</v>
@@ -4700,10 +4745,10 @@
         <v>2050</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K29" s="2">
         <v>525000</v>
@@ -4715,12 +4760,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
@@ -4738,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -4755,7 +4800,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4805,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>0.02</v>
@@ -4816,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>0.01</v>
@@ -4827,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>1.4E-2</v>
@@ -4838,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>1.2999999999999999E-2</v>
@@ -4849,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>1.7000000000000001E-2</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -2268,34 +2268,34 @@
         <v>0.019</v>
       </c>
       <c r="O6" s="4">
-        <v>0.036000000000000004</v>
+        <v>0.0285</v>
       </c>
       <c r="P6" s="4">
         <v>36</v>
       </c>
       <c r="Q6" s="4">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="R6" s="4">
         <v>0.022000000000000002</v>
       </c>
       <c r="S6" s="4">
-        <v>0.048</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="T6" s="4">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="V6" s="4">
         <v>10</v>
       </c>
       <c r="W6" s="4">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="X6" s="4">
         <v>0</v>
       </c>
       <c r="Y6" s="4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4">
         <v>39</v>
@@ -2304,16 +2304,16 @@
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AC6" s="4">
-        <v>0.0216</v>
+        <v>0.021</v>
       </c>
       <c r="AD6" s="4">
         <v>0.28</v>
       </c>
       <c r="AE6" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF6" s="4">
         <v>10</v>
@@ -2346,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="AP6" s="4">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AQ6" s="4">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AR6" s="4">
-        <v>0.032</v>
+        <v>0.0215</v>
       </c>
       <c r="AS6" s="4">
-        <v>0.040999999999999995</v>
+        <v>0.02</v>
       </c>
       <c r="AT6" s="4">
         <v>0.006999999999999999</v>
@@ -2385,7 +2385,7 @@
         <v>0.004</v>
       </c>
       <c r="BC6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD6" s="4">
         <v>1</v>
@@ -2394,7 +2394,7 @@
         <v>130</v>
       </c>
       <c r="BF6" s="4">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:58">
@@ -2426,7 +2426,7 @@
         <v>2035</v>
       </c>
       <c r="K7" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L7" s="4">
         <v>18</v>
@@ -2435,10 +2435,10 @@
         <v>18</v>
       </c>
       <c r="N7" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O7" s="4">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
       <c r="P7" s="4">
         <v>36</v>
@@ -2447,10 +2447,10 @@
         <v>24</v>
       </c>
       <c r="R7" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="S7" s="4">
-        <v>5.4000000000000006E-2</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="T7" s="4">
         <v>2</v>
@@ -2465,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="4">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AA7" s="4">
         <v>0.15</v>
@@ -2477,7 +2477,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7" s="4">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="AD7" s="4">
         <v>0.16</v>
@@ -2522,13 +2522,13 @@
         <v>2</v>
       </c>
       <c r="AR7" s="4">
-        <v>4.1500000000000002E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AS7" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="AT7" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU7" s="4">
         <v>6</v>
@@ -2537,10 +2537,10 @@
         <v>6</v>
       </c>
       <c r="AW7" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX7" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY7" s="4">
         <v>6</v>
@@ -2549,10 +2549,10 @@
         <v>6</v>
       </c>
       <c r="BA7" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB7" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BC7" s="4">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>2035</v>
       </c>
       <c r="K8" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L8" s="4">
         <v>18</v>
@@ -2605,10 +2605,10 @@
         <v>18</v>
       </c>
       <c r="N8" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O8" s="4">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="P8" s="4">
         <v>30</v>
@@ -2617,10 +2617,10 @@
         <v>24</v>
       </c>
       <c r="R8" s="4">
-        <v>1.95E-2</v>
+        <v>0.0195</v>
       </c>
       <c r="S8" s="4">
-        <v>5.4000000000000006E-2</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="T8" s="4">
         <v>5</v>
@@ -2635,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AA8" s="4">
         <v>0.15</v>
@@ -2647,7 +2647,7 @@
         <v>0.5</v>
       </c>
       <c r="AC8" s="4">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="AD8" s="4">
         <v>0.11</v>
@@ -2692,13 +2692,13 @@
         <v>1.5</v>
       </c>
       <c r="AR8" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS8" s="4">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="AT8" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU8" s="4">
         <v>6</v>
@@ -2707,10 +2707,10 @@
         <v>6</v>
       </c>
       <c r="AW8" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX8" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY8" s="4">
         <v>6</v>
@@ -2719,10 +2719,10 @@
         <v>6</v>
       </c>
       <c r="BA8" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB8" s="4">
-        <v>6.5000000000000006E-3</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="BC8" s="4">
         <v>3</v>
@@ -2766,7 +2766,7 @@
         <v>2035</v>
       </c>
       <c r="K9" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L9" s="4">
         <v>18</v>
@@ -2775,10 +2775,10 @@
         <v>18</v>
       </c>
       <c r="N9" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O9" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="P9" s="4">
         <v>30</v>
@@ -2787,13 +2787,13 @@
         <v>24</v>
       </c>
       <c r="R9" s="4">
-        <v>2.1499999999999998E-2</v>
+        <v>0.0215</v>
       </c>
       <c r="S9" s="4">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="T9" s="4">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="V9" s="4">
         <v>10</v>
@@ -2805,22 +2805,22 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AA9" s="4">
         <v>0.15</v>
       </c>
       <c r="AB9" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="AC9" s="4">
-        <v>2.6000000000000002E-2</v>
+        <v>0.026000000000000002</v>
       </c>
       <c r="AD9" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AE9" s="4">
         <v>1</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL9" s="4">
         <v>120</v>
@@ -2856,43 +2856,43 @@
         <v>0</v>
       </c>
       <c r="AP9" s="4">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9" s="4">
         <v>1.5</v>
       </c>
       <c r="AR9" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS9" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AT9" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU9" s="4">
         <v>6</v>
       </c>
       <c r="AV9" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX9" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY9" s="4">
         <v>6</v>
       </c>
       <c r="AZ9" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB9" s="4">
-        <v>1E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BC9" s="4">
         <v>6</v>
@@ -2904,7 +2904,7 @@
         <v>130</v>
       </c>
       <c r="BF9" s="4">
-        <v>8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:58">
@@ -2936,7 +2936,7 @@
         <v>2040</v>
       </c>
       <c r="K10" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L10" s="4">
         <v>18</v>
@@ -2945,10 +2945,10 @@
         <v>18</v>
       </c>
       <c r="N10" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O10" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="P10" s="4">
         <v>24</v>
@@ -2957,13 +2957,13 @@
         <v>36</v>
       </c>
       <c r="R10" s="4">
-        <v>1.3000000000000001E-2</v>
+        <v>0.013000000000000001</v>
       </c>
       <c r="S10" s="4">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="T10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10" s="4">
         <v>15</v>
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Z10" s="4">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AA10" s="4">
         <v>0.15</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>3.2000000000000001E-2</v>
+        <v>0.012</v>
       </c>
       <c r="AK10" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL10" s="4">
         <v>180</v>
@@ -3020,25 +3020,25 @@
         <v>1</v>
       </c>
       <c r="AN10" s="4">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="AO10" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="AP10" s="4">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10" s="4">
         <v>1.5</v>
       </c>
       <c r="AR10" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS10" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>0.0075</v>
       </c>
       <c r="AT10" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU10" s="4">
         <v>6</v>
@@ -3047,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="AW10" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX10" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY10" s="4">
         <v>6</v>
@@ -3059,16 +3059,16 @@
         <v>6</v>
       </c>
       <c r="BA10" s="4">
-        <v>2E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB10" s="4">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="BC10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="4" t="s">
         <v>131</v>
@@ -3106,7 +3106,7 @@
         <v>2035</v>
       </c>
       <c r="K11" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L11" s="4">
         <v>18</v>
@@ -3115,10 +3115,10 @@
         <v>18</v>
       </c>
       <c r="N11" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O11" s="4">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
       <c r="P11" s="4">
         <v>36</v>
@@ -3127,10 +3127,10 @@
         <v>24</v>
       </c>
       <c r="R11" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="S11" s="4">
-        <v>6.2E-2</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="T11" s="4">
         <v>4</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <v>2.6000000000000002E-2</v>
+        <v>0.026000000000000002</v>
       </c>
       <c r="AK11" s="4">
         <v>10</v>
@@ -3202,13 +3202,13 @@
         <v>2</v>
       </c>
       <c r="AR11" s="4">
-        <v>5.2000000000000005E-2</v>
+        <v>0.052000000000000005</v>
       </c>
       <c r="AS11" s="4">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="AT11" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU11" s="4">
         <v>6</v>
@@ -3217,10 +3217,10 @@
         <v>6</v>
       </c>
       <c r="AW11" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX11" s="4">
-        <v>5.5000000000000005E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY11" s="4">
         <v>6</v>
@@ -3229,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="BA11" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB11" s="4">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="BC11" s="4">
         <v>4</v>
@@ -3244,7 +3244,7 @@
         <v>131</v>
       </c>
       <c r="BF11" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="12" spans="1:58">
@@ -3276,7 +3276,7 @@
         <v>2035</v>
       </c>
       <c r="K12" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L12" s="4">
         <v>18</v>
@@ -3285,10 +3285,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O12" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
@@ -3297,10 +3297,10 @@
         <v>24</v>
       </c>
       <c r="R12" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="S12" s="4">
-        <v>6.8000000000000005E-2</v>
+        <v>0.0748</v>
       </c>
       <c r="T12" s="4">
         <v>5</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>2.7999999999999997E-2</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="AK12" s="4">
         <v>12</v>
@@ -3363,7 +3363,7 @@
         <v>0.65</v>
       </c>
       <c r="AO12" s="4">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="AP12" s="4">
         <v>1.25</v>
@@ -3372,13 +3372,13 @@
         <v>1.5</v>
       </c>
       <c r="AR12" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS12" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AT12" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU12" s="4">
         <v>6</v>
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="AW12" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX12" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY12" s="4">
         <v>6</v>
@@ -3399,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="BA12" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB12" s="4">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="BC12" s="4">
         <v>4</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -3,8 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E2F0E1-D1BC-43D0-9EEC-DBDDDD74F910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="32040" windowWidth="57840" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
   <si>
     <t>RETT</t>
   </si>
@@ -458,13 +464,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,19 +661,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -678,19 +684,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -701,19 +707,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981048"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -724,19 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -747,19 +753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -770,19 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -818,7 +824,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,114 +911,114 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="true"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="true"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="true"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="true"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="true"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="true"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="true"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="true"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="42" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="true"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="true"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="true"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="true"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="true"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="true"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="true"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="true"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1323,73 +1329,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF14"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
-      <selection activeCell="F13" pane="topRight" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" style="4" width="5.140625"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" style="4" width="9.140625"/>
-    <col bestFit="true" customWidth="true" max="3" min="3" style="4" width="15.7109375"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" style="4" width="12.140625"/>
-    <col bestFit="true" customWidth="true" max="6" min="6" style="4" width="11.7109375"/>
-    <col customWidth="true" max="7" min="7" style="4" width="12.42578125"/>
-    <col bestFit="true" customWidth="true" max="8" min="8" style="4" width="11.7109375"/>
-    <col bestFit="true" customWidth="true" max="9" min="9" style="4" width="10"/>
-    <col bestFit="true" customWidth="true" max="10" min="10" style="4" width="11.7109375"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" style="4" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="12" min="12" style="4" width="14.5703125"/>
-    <col bestFit="true" customWidth="true" max="13" min="13" style="4" width="18.7109375"/>
-    <col bestFit="true" customWidth="true" max="14" min="14" style="4" width="8.85546875"/>
-    <col bestFit="true" customWidth="true" max="15" min="15" style="4" width="17.7109375"/>
-    <col bestFit="true" customWidth="true" max="16" min="16" style="4" width="20.28515625"/>
-    <col bestFit="true" customWidth="true" max="17" min="17" style="4" width="13.28515625"/>
-    <col bestFit="true" customWidth="true" max="18" min="18" style="4" width="13.85546875"/>
-    <col bestFit="true" customWidth="true" max="19" min="19" style="4" width="10.5703125"/>
-    <col bestFit="true" customWidth="true" max="20" min="20" style="4" width="11"/>
-    <col bestFit="true" customWidth="true" max="21" min="21" style="4" width="9.28515625"/>
-    <col bestFit="true" customWidth="true" max="22" min="22" style="4" width="11.42578125"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" style="4" width="5.5703125"/>
-    <col bestFit="true" customWidth="true" max="24" min="24" style="4" width="5.140625"/>
-    <col bestFit="true" customWidth="true" max="25" min="25" style="4" width="13.7109375"/>
-    <col bestFit="true" customWidth="true" max="26" min="26" style="4" width="11.7109375"/>
-    <col bestFit="true" customWidth="true" max="27" min="27" style="4" width="11"/>
-    <col bestFit="true" customWidth="true" max="28" min="28" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="29" min="29" style="4" width="10"/>
-    <col bestFit="true" customWidth="true" max="30" min="30" style="4" width="14.140625"/>
-    <col bestFit="true" customWidth="true" max="31" min="31" style="4" width="12"/>
-    <col bestFit="true" customWidth="true" max="32" min="32" style="4" width="14.5703125"/>
-    <col bestFit="true" customWidth="true" max="33" min="33" style="4" width="19.5703125"/>
-    <col bestFit="true" customWidth="true" max="34" min="34" style="4" width="10.28515625"/>
-    <col bestFit="true" customWidth="true" max="35" min="35" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="36" min="36" style="4" width="12.42578125"/>
-    <col bestFit="true" customWidth="true" max="37" min="37" style="4" width="9.140625"/>
-    <col bestFit="true" customWidth="true" max="38" min="38" style="4" width="10.140625"/>
-    <col bestFit="true" customWidth="true" max="39" min="39" style="4" width="16.140625"/>
-    <col bestFit="true" customWidth="true" max="40" min="40" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="41" min="41" style="4" width="8.140625"/>
-    <col bestFit="true" customWidth="true" max="42" min="42" style="4" width="9.85546875"/>
-    <col bestFit="true" customWidth="true" max="43" min="43" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="44" min="44" style="4" width="11.140625"/>
-    <col bestFit="true" customWidth="true" max="45" min="45" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="46" min="46" style="4" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="47" min="47" style="4" width="14.5703125"/>
-    <col bestFit="true" customWidth="true" max="48" min="48" style="4" width="13.7109375"/>
-    <col bestFit="true" customWidth="true" max="49" min="49" style="4" width="14"/>
-    <col bestFit="true" customWidth="true" max="50" min="50" style="4" width="14.7109375"/>
-    <col bestFit="true" customWidth="true" max="51" min="51" style="4" width="15.140625"/>
-    <col bestFit="true" customWidth="true" max="52" min="52" style="4" width="14.28515625"/>
-    <col bestFit="true" customWidth="true" max="53" min="53" style="4" width="14.5703125"/>
-    <col bestFit="true" customWidth="true" max="54" min="54" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="56" min="55" style="4" width="10.5703125"/>
-    <col bestFit="true" customWidth="true" max="57" min="57" style="4" width="6.28515625"/>
-    <col max="16384" min="58" style="4" width="12.5703125"/>
+    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="true">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="5" customFormat="true" ht="45">
+    <row r="2" spans="1:58" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="5" customFormat="true">
+    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>6</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2256,34 +2262,34 @@
         <v>2035</v>
       </c>
       <c r="K6" s="4">
-        <v>0.055</v>
+        <v>5.7800000000000004E-2</v>
       </c>
       <c r="L6" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M6" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N6" s="4">
-        <v>0.019</v>
+        <v>1.83E-2</v>
       </c>
       <c r="O6" s="4">
-        <v>0.0285</v>
+        <v>4.2800000000000005E-2</v>
       </c>
       <c r="P6" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="4">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="R6" s="4">
-        <v>0.022000000000000002</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="S6" s="4">
-        <v>0.054000000000000006</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="T6" s="4">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V6" s="4">
         <v>10</v>
@@ -2307,10 +2313,10 @@
         <v>0.6</v>
       </c>
       <c r="AC6" s="4">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD6" s="4">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="AE6" s="4">
         <v>10</v>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL6" s="4">
         <v>60</v>
@@ -2340,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="AN6" s="4">
-        <v>0.65</v>
+        <v>0.6765000000000001</v>
       </c>
       <c r="AO6" s="4">
         <v>0</v>
@@ -2352,13 +2358,13 @@
         <v>1.2</v>
       </c>
       <c r="AR6" s="4">
-        <v>0.0215</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="AS6" s="4">
         <v>0.02</v>
       </c>
       <c r="AT6" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU6" s="4">
         <v>6</v>
@@ -2367,10 +2373,10 @@
         <v>6</v>
       </c>
       <c r="AW6" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX6" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY6" s="4">
         <v>6</v>
@@ -2379,10 +2385,10 @@
         <v>6</v>
       </c>
       <c r="BA6" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB6" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC6" s="4">
         <v>3</v>
@@ -2397,7 +2403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>2035</v>
       </c>
       <c r="K7" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L7" s="4">
         <v>18</v>
@@ -2435,10 +2441,10 @@
         <v>18</v>
       </c>
       <c r="N7" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O7" s="4">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="P7" s="4">
         <v>36</v>
@@ -2447,10 +2453,10 @@
         <v>24</v>
       </c>
       <c r="R7" s="4">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="S7" s="4">
-        <v>0.054000000000000006</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="T7" s="4">
         <v>2</v>
@@ -2477,7 +2483,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD7" s="4">
         <v>0.16</v>
@@ -2510,25 +2516,25 @@
         <v>1</v>
       </c>
       <c r="AN7" s="4">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AO7" s="4">
         <v>0</v>
       </c>
       <c r="AP7" s="4">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7" s="4">
         <v>2</v>
       </c>
       <c r="AR7" s="4">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AS7" s="4">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="AT7" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU7" s="4">
         <v>6</v>
@@ -2537,10 +2543,10 @@
         <v>6</v>
       </c>
       <c r="AW7" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX7" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY7" s="4">
         <v>6</v>
@@ -2549,10 +2555,10 @@
         <v>6</v>
       </c>
       <c r="BA7" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB7" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC7" s="4">
         <v>1</v>
@@ -2567,7 +2573,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>2035</v>
       </c>
       <c r="K8" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L8" s="4">
         <v>18</v>
@@ -2605,10 +2611,10 @@
         <v>18</v>
       </c>
       <c r="N8" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O8" s="4">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="P8" s="4">
         <v>30</v>
@@ -2617,10 +2623,10 @@
         <v>24</v>
       </c>
       <c r="R8" s="4">
-        <v>0.0195</v>
+        <v>1.95E-2</v>
       </c>
       <c r="S8" s="4">
-        <v>0.054000000000000006</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="T8" s="4">
         <v>5</v>
@@ -2638,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="4">
         <v>0.15</v>
@@ -2647,7 +2653,7 @@
         <v>0.5</v>
       </c>
       <c r="AC8" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD8" s="4">
         <v>0.11</v>
@@ -2692,13 +2698,13 @@
         <v>1.5</v>
       </c>
       <c r="AR8" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS8" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AT8" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU8" s="4">
         <v>6</v>
@@ -2707,10 +2713,10 @@
         <v>6</v>
       </c>
       <c r="AW8" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX8" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY8" s="4">
         <v>6</v>
@@ -2719,10 +2725,10 @@
         <v>6</v>
       </c>
       <c r="BA8" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB8" s="4">
-        <v>0.006500000000000001</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="BC8" s="4">
         <v>3</v>
@@ -2737,7 +2743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>11</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>2035</v>
       </c>
       <c r="K9" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L9" s="4">
         <v>18</v>
@@ -2775,10 +2781,10 @@
         <v>18</v>
       </c>
       <c r="N9" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O9" s="4">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P9" s="4">
         <v>30</v>
@@ -2787,10 +2793,10 @@
         <v>24</v>
       </c>
       <c r="R9" s="4">
-        <v>0.0215</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="S9" s="4">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="T9" s="4">
         <v>3.3</v>
@@ -2808,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="4">
         <v>0.15</v>
@@ -2817,10 +2823,10 @@
         <v>0.5</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.026000000000000002</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE9" s="4">
         <v>1</v>
@@ -2862,13 +2868,13 @@
         <v>1.5</v>
       </c>
       <c r="AR9" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS9" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AT9" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU9" s="4">
         <v>6</v>
@@ -2877,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="AW9" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX9" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY9" s="4">
         <v>6</v>
@@ -2889,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="BA9" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB9" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC9" s="4">
         <v>6</v>
@@ -2907,7 +2913,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>2040</v>
       </c>
       <c r="K10" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L10" s="4">
         <v>18</v>
@@ -2945,10 +2951,10 @@
         <v>18</v>
       </c>
       <c r="N10" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O10" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="P10" s="4">
         <v>24</v>
@@ -2957,10 +2963,10 @@
         <v>36</v>
       </c>
       <c r="R10" s="4">
-        <v>0.013000000000000001</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="S10" s="4">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="T10" s="4">
         <v>2</v>
@@ -2975,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Z10" s="4">
         <v>30</v>
@@ -3008,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AK10" s="4">
         <v>18</v>
@@ -3032,13 +3038,13 @@
         <v>1.5</v>
       </c>
       <c r="AR10" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS10" s="4">
-        <v>0.0075</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AT10" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU10" s="4">
         <v>6</v>
@@ -3047,10 +3053,10 @@
         <v>6</v>
       </c>
       <c r="AW10" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX10" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY10" s="4">
         <v>6</v>
@@ -3059,10 +3065,10 @@
         <v>6</v>
       </c>
       <c r="BA10" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB10" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BC10" s="4">
         <v>0</v>
@@ -3077,7 +3083,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>2035</v>
       </c>
       <c r="K11" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L11" s="4">
         <v>18</v>
@@ -3115,10 +3121,10 @@
         <v>18</v>
       </c>
       <c r="N11" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O11" s="4">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="P11" s="4">
         <v>36</v>
@@ -3127,10 +3133,10 @@
         <v>24</v>
       </c>
       <c r="R11" s="4">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="S11" s="4">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="T11" s="4">
         <v>4</v>
@@ -3145,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z11" s="4">
         <v>39</v>
@@ -3178,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <v>0.026000000000000002</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="AK11" s="4">
         <v>10</v>
@@ -3202,13 +3208,13 @@
         <v>2</v>
       </c>
       <c r="AR11" s="4">
-        <v>0.052000000000000005</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="AS11" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AT11" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU11" s="4">
         <v>6</v>
@@ -3217,10 +3223,10 @@
         <v>6</v>
       </c>
       <c r="AW11" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX11" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY11" s="4">
         <v>6</v>
@@ -3229,10 +3235,10 @@
         <v>6</v>
       </c>
       <c r="BA11" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB11" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BC11" s="4">
         <v>4</v>
@@ -3244,10 +3250,10 @@
         <v>131</v>
       </c>
       <c r="BF11" s="4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>2035</v>
       </c>
       <c r="K12" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L12" s="4">
         <v>18</v>
@@ -3285,10 +3291,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O12" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
@@ -3297,10 +3303,10 @@
         <v>24</v>
       </c>
       <c r="R12" s="4">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="S12" s="4">
-        <v>0.0748</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="T12" s="4">
         <v>5</v>
@@ -3315,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z12" s="4">
         <v>39</v>
@@ -3348,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>0.018000000000000002</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="AK12" s="4">
         <v>12</v>
@@ -3363,7 +3369,7 @@
         <v>0.65</v>
       </c>
       <c r="AO12" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AP12" s="4">
         <v>1.25</v>
@@ -3372,13 +3378,13 @@
         <v>1.5</v>
       </c>
       <c r="AR12" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS12" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT12" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU12" s="4">
         <v>6</v>
@@ -3387,10 +3393,10 @@
         <v>6</v>
       </c>
       <c r="AW12" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX12" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY12" s="4">
         <v>6</v>
@@ -3399,10 +3405,10 @@
         <v>6</v>
       </c>
       <c r="BA12" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB12" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BC12" s="4">
         <v>4</v>
@@ -3417,7 +3423,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="O13" s="4">
-        <v>3.600000000000001</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="P13" s="4">
         <v>36</v>
@@ -3467,10 +3473,10 @@
         <v>24</v>
       </c>
       <c r="R13" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="S13" s="4">
-        <v>4.9000000000000004</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="T13" s="4">
         <v>5</v>
@@ -3487,6 +3493,9 @@
       <c r="Y13" s="4">
         <v>0.5</v>
       </c>
+      <c r="Z13" s="4">
+        <v>39</v>
+      </c>
       <c r="AA13" s="4">
         <v>0.15</v>
       </c>
@@ -3497,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="4">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AE13" s="4">
         <v>1</v>
@@ -3506,7 +3515,7 @@
         <v>6</v>
       </c>
       <c r="AG13" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>113</v>
@@ -3539,10 +3548,10 @@
         <v>1.5</v>
       </c>
       <c r="AR13" s="4">
-        <v>2.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS13" s="4">
-        <v>1.25</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT13" s="4">
         <v>6.9999999999999993E-3</v>
@@ -3557,19 +3566,19 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX13" s="4">
-        <v>0.4</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY13" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ13" s="4">
         <v>6</v>
       </c>
       <c r="BA13" s="4">
-        <v>0.15</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB13" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="BC13" s="4">
         <v>6</v>
@@ -3581,10 +3590,10 @@
         <v>131</v>
       </c>
       <c r="BF13" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="O14" s="4">
-        <v>3.600000000000001</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="P14" s="4">
         <v>36</v>
@@ -3634,10 +3643,10 @@
         <v>24</v>
       </c>
       <c r="R14" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="S14" s="4">
-        <v>4.9000000000000004</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T14" s="4">
         <v>5</v>
@@ -3654,6 +3663,9 @@
       <c r="Y14" s="4">
         <v>0.5</v>
       </c>
+      <c r="Z14" s="4">
+        <v>39</v>
+      </c>
       <c r="AA14" s="4">
         <v>0.15</v>
       </c>
@@ -3664,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="4">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AE14" s="4">
         <v>1</v>
@@ -3673,7 +3685,7 @@
         <v>6</v>
       </c>
       <c r="AG14" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="4" t="s">
         <v>113</v>
@@ -3706,10 +3718,10 @@
         <v>1.5</v>
       </c>
       <c r="AR14" s="4">
-        <v>2.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS14" s="4">
-        <v>1.25</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT14" s="4">
         <v>6.9999999999999993E-3</v>
@@ -3724,19 +3736,19 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX14" s="4">
-        <v>0.4</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY14" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ14" s="4">
         <v>6</v>
       </c>
       <c r="BA14" s="4">
-        <v>0.15</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB14" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="BC14" s="4">
         <v>6</v>
@@ -3748,21 +3760,19 @@
         <v>131</v>
       </c>
       <c r="BF14" s="4">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5049,6 +5059,82 @@
         <v>12</v>
       </c>
     </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2050</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1825000</v>
+      </c>
+      <c r="V32" s="1">
+        <v>114062.5</v>
+      </c>
+      <c r="W32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2050</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2450000</v>
+      </c>
+      <c r="V33" s="1">
+        <v>163333.33333333334</v>
+      </c>
+      <c r="W33" s="1">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericl\go\src\OGN\models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E2F0E1-D1BC-43D0-9EEC-DBDDDD74F910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="32040" windowWidth="57840" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="143">
   <si>
     <t>RETT</t>
   </si>
@@ -459,18 +453,21 @@
   </si>
   <si>
     <t>Fit Out costs</t>
+  </si>
+  <si>
+    <t>OGANITA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,19 +658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -684,19 +681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -707,19 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -730,19 +727,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -753,19 +750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -776,19 +773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -824,7 +821,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,114 +908,114 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="true"/>
     <cellStyle name="Comma" xfId="42" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="true"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1329,73 +1326,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ14" sqref="AZ14"/>
+    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
+      <selection activeCell="G16" pane="topRight" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="12.5703125" style="4"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" style="4" width="5.140625"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" style="4" width="9.140625"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" style="4" width="15.7109375"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" style="4" width="8.42578125"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" style="4" width="12.140625"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" style="4" width="11.7109375"/>
+    <col customWidth="true" max="7" min="7" style="4" width="12.42578125"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" style="4" width="11.7109375"/>
+    <col bestFit="true" customWidth="true" max="9" min="9" style="4" width="10"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" style="4" width="11.7109375"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" style="4" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="12" min="12" style="4" width="14.5703125"/>
+    <col bestFit="true" customWidth="true" max="13" min="13" style="4" width="18.7109375"/>
+    <col bestFit="true" customWidth="true" max="14" min="14" style="4" width="8.85546875"/>
+    <col bestFit="true" customWidth="true" max="15" min="15" style="4" width="17.7109375"/>
+    <col bestFit="true" customWidth="true" max="16" min="16" style="4" width="20.28515625"/>
+    <col bestFit="true" customWidth="true" max="17" min="17" style="4" width="13.28515625"/>
+    <col bestFit="true" customWidth="true" max="18" min="18" style="4" width="13.85546875"/>
+    <col bestFit="true" customWidth="true" max="19" min="19" style="4" width="10.5703125"/>
+    <col bestFit="true" customWidth="true" max="20" min="20" style="4" width="11"/>
+    <col bestFit="true" customWidth="true" max="21" min="21" style="4" width="9.28515625"/>
+    <col bestFit="true" customWidth="true" max="22" min="22" style="4" width="11.42578125"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" style="4" width="5.5703125"/>
+    <col bestFit="true" customWidth="true" max="24" min="24" style="4" width="5.140625"/>
+    <col bestFit="true" customWidth="true" max="25" min="25" style="4" width="13.7109375"/>
+    <col bestFit="true" customWidth="true" max="26" min="26" style="4" width="11.7109375"/>
+    <col bestFit="true" customWidth="true" max="27" min="27" style="4" width="11"/>
+    <col bestFit="true" customWidth="true" max="28" min="28" style="4" width="8"/>
+    <col bestFit="true" customWidth="true" max="29" min="29" style="4" width="10"/>
+    <col bestFit="true" customWidth="true" max="30" min="30" style="4" width="14.140625"/>
+    <col bestFit="true" customWidth="true" max="31" min="31" style="4" width="12"/>
+    <col bestFit="true" customWidth="true" max="32" min="32" style="4" width="14.5703125"/>
+    <col bestFit="true" customWidth="true" max="33" min="33" style="4" width="19.5703125"/>
+    <col bestFit="true" customWidth="true" max="34" min="34" style="4" width="10.28515625"/>
+    <col bestFit="true" customWidth="true" max="35" min="35" style="4" width="8"/>
+    <col bestFit="true" customWidth="true" max="36" min="36" style="4" width="12.42578125"/>
+    <col bestFit="true" customWidth="true" max="37" min="37" style="4" width="9.140625"/>
+    <col bestFit="true" customWidth="true" max="38" min="38" style="4" width="10.140625"/>
+    <col bestFit="true" customWidth="true" max="39" min="39" style="4" width="16.140625"/>
+    <col bestFit="true" customWidth="true" max="40" min="40" style="4" width="8"/>
+    <col bestFit="true" customWidth="true" max="41" min="41" style="4" width="8.140625"/>
+    <col bestFit="true" customWidth="true" max="42" min="42" style="4" width="9.85546875"/>
+    <col bestFit="true" customWidth="true" max="43" min="43" style="4" width="8"/>
+    <col bestFit="true" customWidth="true" max="44" min="44" style="4" width="11.140625"/>
+    <col bestFit="true" customWidth="true" max="45" min="45" style="4" width="8"/>
+    <col bestFit="true" customWidth="true" max="46" min="46" style="4" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="47" min="47" style="4" width="14.5703125"/>
+    <col bestFit="true" customWidth="true" max="48" min="48" style="4" width="13.7109375"/>
+    <col bestFit="true" customWidth="true" max="49" min="49" style="4" width="14"/>
+    <col bestFit="true" customWidth="true" max="50" min="50" style="4" width="14.7109375"/>
+    <col bestFit="true" customWidth="true" max="51" min="51" style="4" width="15.140625"/>
+    <col bestFit="true" customWidth="true" max="52" min="52" style="4" width="14.28515625"/>
+    <col bestFit="true" customWidth="true" max="53" min="53" style="4" width="14.5703125"/>
+    <col bestFit="true" customWidth="true" max="54" min="54" style="4" width="8"/>
+    <col bestFit="true" customWidth="true" max="56" min="55" style="4" width="10.5703125"/>
+    <col bestFit="true" customWidth="true" max="57" min="57" style="4" width="6.28515625"/>
+    <col max="16384" min="58" style="4" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="3" customFormat="true">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -1571,7 +1568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="5" customFormat="true" ht="45">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" s="5" customFormat="true">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1770,131 +1767,135 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>0.055</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="P3" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>0.013000000000000001</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>0.0825</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4">
+        <v>15</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="AE3" s="4">
         <v>10</v>
       </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>0</v>
-      </c>
       <c r="AF3" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="AI3" s="4">
         <v>0</v>
       </c>
       <c r="AJ3" s="4">
-        <v>0</v>
+        <v>0.013999999999999999</v>
       </c>
       <c r="AK3" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AM3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO3" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AP3" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR3" s="4">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="AS3" s="4">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="AT3" s="4">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AU3" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV3" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW3" s="4">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="AX3" s="4">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AY3" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ3" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="4"/>
+        <v>0.0025</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>0.0005</v>
+      </c>
       <c r="BC3" s="4">
         <v>0</v>
       </c>
@@ -1902,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="BF3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -2069,16 +2070,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58">
       <c r="B5" s="4">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="4">
         <v>1</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2262,34 +2261,34 @@
         <v>2035</v>
       </c>
       <c r="K6" s="4">
-        <v>5.7800000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L6" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M6" s="4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N6" s="4">
-        <v>1.83E-2</v>
+        <v>0.0148</v>
       </c>
       <c r="O6" s="4">
-        <v>4.2800000000000005E-2</v>
+        <v>0.0443</v>
       </c>
       <c r="P6" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="4">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="R6" s="4">
-        <v>2.1299999999999999E-2</v>
+        <v>0.024300000000000002</v>
       </c>
       <c r="S6" s="4">
-        <v>5.5500000000000001E-2</v>
+        <v>0.0555</v>
       </c>
       <c r="T6" s="4">
-        <v>3.2</v>
+        <v>4.86</v>
       </c>
       <c r="V6" s="4">
         <v>10</v>
@@ -2313,10 +2312,10 @@
         <v>0.6</v>
       </c>
       <c r="AC6" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="AD6" s="4">
-        <v>0.22</v>
+        <v>0.2335</v>
       </c>
       <c r="AE6" s="4">
         <v>10</v>
@@ -2337,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL6" s="4">
         <v>60</v>
@@ -2346,25 +2345,25 @@
         <v>1</v>
       </c>
       <c r="AN6" s="4">
-        <v>0.6765000000000001</v>
+        <v>0.6751999999999999</v>
       </c>
       <c r="AO6" s="4">
         <v>0</v>
       </c>
       <c r="AP6" s="4">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AQ6" s="4">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AR6" s="4">
-        <v>2.1499999999999998E-2</v>
+        <v>0.0345</v>
       </c>
       <c r="AS6" s="4">
-        <v>0.02</v>
+        <v>0.035</v>
       </c>
       <c r="AT6" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.0085</v>
       </c>
       <c r="AU6" s="4">
         <v>6</v>
@@ -2373,10 +2372,10 @@
         <v>6</v>
       </c>
       <c r="AW6" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AX6" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.0085</v>
       </c>
       <c r="AY6" s="4">
         <v>6</v>
@@ -2385,10 +2384,10 @@
         <v>6</v>
       </c>
       <c r="BA6" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.001</v>
       </c>
       <c r="BB6" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BC6" s="4">
         <v>3</v>
@@ -2403,7 +2402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>2035</v>
       </c>
       <c r="K7" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L7" s="4">
         <v>18</v>
@@ -2441,10 +2440,10 @@
         <v>18</v>
       </c>
       <c r="N7" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O7" s="4">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
       <c r="P7" s="4">
         <v>36</v>
@@ -2453,10 +2452,10 @@
         <v>24</v>
       </c>
       <c r="R7" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="S7" s="4">
-        <v>5.4000000000000006E-2</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="T7" s="4">
         <v>2</v>
@@ -2483,7 +2482,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7" s="4">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="AD7" s="4">
         <v>0.16</v>
@@ -2528,13 +2527,13 @@
         <v>2</v>
       </c>
       <c r="AR7" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AS7" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="AT7" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU7" s="4">
         <v>6</v>
@@ -2543,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="AW7" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX7" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY7" s="4">
         <v>6</v>
@@ -2555,10 +2554,10 @@
         <v>6</v>
       </c>
       <c r="BA7" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB7" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BC7" s="4">
         <v>1</v>
@@ -2573,7 +2572,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>2035</v>
       </c>
       <c r="K8" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L8" s="4">
         <v>18</v>
@@ -2611,10 +2610,10 @@
         <v>18</v>
       </c>
       <c r="N8" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O8" s="4">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="P8" s="4">
         <v>30</v>
@@ -2623,10 +2622,10 @@
         <v>24</v>
       </c>
       <c r="R8" s="4">
-        <v>1.95E-2</v>
+        <v>0.0195</v>
       </c>
       <c r="S8" s="4">
-        <v>5.4000000000000006E-2</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="T8" s="4">
         <v>5</v>
@@ -2653,7 +2652,7 @@
         <v>0.5</v>
       </c>
       <c r="AC8" s="4">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="AD8" s="4">
         <v>0.11</v>
@@ -2698,13 +2697,13 @@
         <v>1.5</v>
       </c>
       <c r="AR8" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS8" s="4">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="AT8" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU8" s="4">
         <v>6</v>
@@ -2713,10 +2712,10 @@
         <v>6</v>
       </c>
       <c r="AW8" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX8" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY8" s="4">
         <v>6</v>
@@ -2725,10 +2724,10 @@
         <v>6</v>
       </c>
       <c r="BA8" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB8" s="4">
-        <v>6.5000000000000006E-3</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="BC8" s="4">
         <v>3</v>
@@ -2743,7 +2742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58">
       <c r="B9" s="4">
         <v>11</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>2035</v>
       </c>
       <c r="K9" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L9" s="4">
         <v>18</v>
@@ -2781,10 +2780,10 @@
         <v>18</v>
       </c>
       <c r="N9" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O9" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="P9" s="4">
         <v>30</v>
@@ -2793,10 +2792,10 @@
         <v>24</v>
       </c>
       <c r="R9" s="4">
-        <v>2.1499999999999998E-2</v>
+        <v>0.0215</v>
       </c>
       <c r="S9" s="4">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="T9" s="4">
         <v>3.3</v>
@@ -2823,10 +2822,10 @@
         <v>0.5</v>
       </c>
       <c r="AC9" s="4">
-        <v>2.6000000000000002E-2</v>
+        <v>0.026000000000000002</v>
       </c>
       <c r="AD9" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AE9" s="4">
         <v>1</v>
@@ -2868,13 +2867,13 @@
         <v>1.5</v>
       </c>
       <c r="AR9" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS9" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AT9" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU9" s="4">
         <v>6</v>
@@ -2883,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="AW9" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX9" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY9" s="4">
         <v>6</v>
@@ -2895,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="BA9" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB9" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BC9" s="4">
         <v>6</v>
@@ -2913,7 +2912,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58">
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>2040</v>
       </c>
       <c r="K10" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L10" s="4">
         <v>18</v>
@@ -2951,10 +2950,10 @@
         <v>18</v>
       </c>
       <c r="N10" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O10" s="4">
-        <v>1.9E-2</v>
+        <v>0.016</v>
       </c>
       <c r="P10" s="4">
         <v>24</v>
@@ -2963,13 +2962,13 @@
         <v>36</v>
       </c>
       <c r="R10" s="4">
-        <v>1.3000000000000001E-2</v>
+        <v>0.013000000000000001</v>
       </c>
       <c r="S10" s="4">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="T10" s="4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="V10" s="4">
         <v>15</v>
@@ -2981,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="4">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="4">
         <v>0.15</v>
@@ -2999,10 +2998,10 @@
         <v>0.06</v>
       </c>
       <c r="AE10" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF10" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AG10" s="4">
         <v>1</v>
@@ -3014,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>1.2E-2</v>
+        <v>0.013999999999999999</v>
       </c>
       <c r="AK10" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL10" s="4">
         <v>180</v>
@@ -3029,22 +3028,22 @@
         <v>0.75</v>
       </c>
       <c r="AO10" s="4">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AP10" s="4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR10" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS10" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>0.0075</v>
       </c>
       <c r="AT10" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.012</v>
       </c>
       <c r="AU10" s="4">
         <v>6</v>
@@ -3053,10 +3052,10 @@
         <v>6</v>
       </c>
       <c r="AW10" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX10" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.012</v>
       </c>
       <c r="AY10" s="4">
         <v>6</v>
@@ -3065,10 +3064,10 @@
         <v>6</v>
       </c>
       <c r="BA10" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB10" s="4">
-        <v>1E-3</v>
+        <v>0.0005</v>
       </c>
       <c r="BC10" s="4">
         <v>0</v>
@@ -3083,7 +3082,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>2035</v>
       </c>
       <c r="K11" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L11" s="4">
         <v>18</v>
@@ -3121,10 +3120,10 @@
         <v>18</v>
       </c>
       <c r="N11" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O11" s="4">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
       <c r="P11" s="4">
         <v>36</v>
@@ -3133,10 +3132,10 @@
         <v>24</v>
       </c>
       <c r="R11" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="S11" s="4">
-        <v>7.2000000000000008E-2</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="T11" s="4">
         <v>4</v>
@@ -3184,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <v>2.6000000000000002E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AK11" s="4">
         <v>10</v>
@@ -3199,7 +3198,7 @@
         <v>0.65</v>
       </c>
       <c r="AO11" s="4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP11" s="4">
         <v>2.5</v>
@@ -3208,13 +3207,13 @@
         <v>2</v>
       </c>
       <c r="AR11" s="4">
-        <v>5.2000000000000005E-2</v>
+        <v>0.052000000000000005</v>
       </c>
       <c r="AS11" s="4">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="AT11" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU11" s="4">
         <v>6</v>
@@ -3223,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="AW11" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX11" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY11" s="4">
         <v>6</v>
@@ -3235,10 +3234,10 @@
         <v>6</v>
       </c>
       <c r="BA11" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB11" s="4">
-        <v>1E-3</v>
+        <v>0.0005</v>
       </c>
       <c r="BC11" s="4">
         <v>4</v>
@@ -3250,10 +3249,10 @@
         <v>131</v>
       </c>
       <c r="BF11" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>2035</v>
       </c>
       <c r="K12" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L12" s="4">
         <v>18</v>
@@ -3291,10 +3290,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O12" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
@@ -3303,10 +3302,10 @@
         <v>24</v>
       </c>
       <c r="R12" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="S12" s="4">
-        <v>7.4800000000000005E-2</v>
+        <v>0.0748</v>
       </c>
       <c r="T12" s="4">
         <v>5</v>
@@ -3354,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>1.8000000000000002E-2</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="AK12" s="4">
         <v>12</v>
@@ -3369,7 +3368,7 @@
         <v>0.65</v>
       </c>
       <c r="AO12" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AP12" s="4">
         <v>1.25</v>
@@ -3378,13 +3377,13 @@
         <v>1.5</v>
       </c>
       <c r="AR12" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS12" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AT12" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU12" s="4">
         <v>6</v>
@@ -3393,10 +3392,10 @@
         <v>6</v>
       </c>
       <c r="AW12" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX12" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY12" s="4">
         <v>6</v>
@@ -3405,10 +3404,10 @@
         <v>6</v>
       </c>
       <c r="BA12" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB12" s="4">
-        <v>1E-3</v>
+        <v>0.0005</v>
       </c>
       <c r="BC12" s="4">
         <v>4</v>
@@ -3423,7 +3422,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>2035</v>
       </c>
       <c r="K13" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L13" s="4">
         <v>18</v>
@@ -3461,10 +3460,10 @@
         <v>18</v>
       </c>
       <c r="N13" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O13" s="4">
-        <v>3.6000000000000004E-2</v>
+        <v>0.016</v>
       </c>
       <c r="P13" s="4">
         <v>36</v>
@@ -3473,10 +3472,10 @@
         <v>24</v>
       </c>
       <c r="R13" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.013000000000000001</v>
       </c>
       <c r="S13" s="4">
-        <v>8.8000000000000009E-2</v>
+        <v>0.06849999999999999</v>
       </c>
       <c r="T13" s="4">
         <v>5</v>
@@ -3491,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="4">
         <v>39</v>
@@ -3524,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AK13" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL13" s="4">
         <v>180</v>
@@ -3539,22 +3538,22 @@
         <v>0.65</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="AP13" s="4">
         <v>1.25</v>
       </c>
       <c r="AQ13" s="4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AR13" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS13" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AT13" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU13" s="4">
         <v>6</v>
@@ -3563,10 +3562,10 @@
         <v>6</v>
       </c>
       <c r="AW13" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX13" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY13" s="4">
         <v>6</v>
@@ -3575,16 +3574,16 @@
         <v>6</v>
       </c>
       <c r="BA13" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB13" s="4">
-        <v>1E-3</v>
+        <v>0.0005</v>
       </c>
       <c r="BC13" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="4" t="s">
         <v>131</v>
@@ -3593,7 +3592,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>2035</v>
       </c>
       <c r="K14" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L14" s="4">
         <v>18</v>
@@ -3631,10 +3630,10 @@
         <v>18</v>
       </c>
       <c r="N14" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O14" s="4">
-        <v>3.6000000000000004E-2</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="P14" s="4">
         <v>36</v>
@@ -3643,13 +3642,13 @@
         <v>24</v>
       </c>
       <c r="R14" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.015</v>
       </c>
       <c r="S14" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>0.0655</v>
       </c>
       <c r="T14" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V14" s="4">
         <v>15</v>
@@ -3694,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="AK14" s="4">
         <v>12</v>
@@ -3709,22 +3708,22 @@
         <v>0.65</v>
       </c>
       <c r="AO14" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="AP14" s="4">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14" s="4">
         <v>1.5</v>
       </c>
       <c r="AR14" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS14" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AT14" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU14" s="4">
         <v>6</v>
@@ -3733,10 +3732,10 @@
         <v>6</v>
       </c>
       <c r="AW14" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX14" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY14" s="4">
         <v>6</v>
@@ -3745,10 +3744,10 @@
         <v>6</v>
       </c>
       <c r="BA14" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB14" s="4">
-        <v>1E-3</v>
+        <v>0.0005</v>
       </c>
       <c r="BC14" s="4">
         <v>6</v>
@@ -3764,7 +3763,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -3774,36 +3773,36 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="45.85546875" style="1"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" style="1" width="2"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" style="1" width="9"/>
+    <col customWidth="true" max="3" min="3" style="1" width="11.28515625"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" style="1" width="17"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" style="1" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" style="1" width="16.140625"/>
+    <col bestFit="true" customWidth="true" max="7" min="7" style="1" width="17.42578125"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" style="1" width="15.28515625"/>
+    <col bestFit="true" customWidth="true" max="9" min="9" style="1" width="11"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" style="1" width="20.28515625"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" style="1" width="12.7109375"/>
+    <col bestFit="true" customWidth="true" max="12" min="12" style="1" width="10.7109375"/>
+    <col bestFit="true" customWidth="true" max="13" min="13" style="1" width="18.42578125"/>
+    <col bestFit="true" customWidth="true" max="14" min="14" style="1" width="12.85546875"/>
+    <col bestFit="true" customWidth="true" max="15" min="15" style="1" width="10.7109375"/>
+    <col bestFit="true" customWidth="true" max="16" min="16" style="1" width="11.28515625"/>
+    <col bestFit="true" customWidth="true" max="17" min="17" style="1" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="18" min="18" style="1" width="18.140625"/>
+    <col bestFit="true" customWidth="true" max="19" min="19" style="1" width="18.28515625"/>
+    <col bestFit="true" customWidth="true" max="20" min="20" style="1" width="5.140625"/>
+    <col bestFit="true" customWidth="true" max="21" min="21" style="1" width="13.42578125"/>
+    <col bestFit="true" customWidth="true" max="22" min="22" style="1" width="8.5703125"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" style="1" width="11.5703125"/>
+    <col bestFit="true" customWidth="true" max="24" min="24" style="1" width="17.5703125"/>
+    <col max="16384" min="25" style="1" width="45.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3987,7 +3986,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -4026,7 +4025,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -4065,7 +4064,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -4104,7 +4103,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -4143,7 +4142,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -4182,7 +4181,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -4221,7 +4220,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -4260,7 +4259,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -4375,7 +4374,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -4983,7 +4982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -5135,9 +5134,47 @@
         <v>15</v>
       </c>
     </row>
+    <row r="34">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G34" s="1">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2050</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4500000</v>
+      </c>
+      <c r="V34" s="1">
+        <v>250000</v>
+      </c>
+      <c r="W34" s="1">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -2288,7 +2288,7 @@
         <v>0.0555</v>
       </c>
       <c r="T6" s="4">
-        <v>4.86</v>
+        <v>2.45</v>
       </c>
       <c r="V6" s="4">
         <v>10</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="AP6" s="4">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR6" s="4">
         <v>0.0345</v>
@@ -2387,7 +2387,7 @@
         <v>0.001</v>
       </c>
       <c r="BB6" s="4">
-        <v>0.004</v>
+        <v>0.0005</v>
       </c>
       <c r="BC6" s="4">
         <v>3</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="32040" windowWidth="57840" xWindow="-120" yWindow="-120"/>
+    <workbookView windowHeight="15990" windowWidth="24560" xWindow="-25140" yWindow="5260"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
   <si>
     <t>RETT</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>OGANITA</t>
+  </si>
+  <si>
+    <t>Sims</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true"/>
@@ -966,6 +969,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1324,11 +1330,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF14"/>
+  <dimension ref="A1:BG14"/>
   <sheetViews>
     <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
-      <selection activeCell="G16" pane="topRight" sqref="G16"/>
+      <pane activePane="topRight" state="frozen" topLeftCell="AY1" xSplit="3"/>
+      <selection activeCell="BG4" pane="topRight" sqref="BG4:BG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -1392,7 +1398,7 @@
     <col max="16384" min="58" style="4" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="true">
+    <row r="1" spans="1:59" s="3" customFormat="true">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -1567,8 +1573,11 @@
       <c r="BF1" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" s="5" customFormat="true" ht="45">
+      <c r="BG1" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" s="5" customFormat="true" ht="45">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1740,8 +1749,11 @@
       <c r="BF2" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:58" s="5" customFormat="true">
+      <c r="BG2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="5" customFormat="true">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L3" s="4">
         <v>18</v>
@@ -1776,10 +1788,10 @@
         <v>18</v>
       </c>
       <c r="N3" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O3" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="P3" s="4">
         <v>24</v>
@@ -1788,10 +1800,10 @@
         <v>36</v>
       </c>
       <c r="R3" s="4">
-        <v>0.013000000000000001</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="S3" s="4">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="T3" s="4">
         <v>3.5</v>
@@ -1840,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="4">
-        <v>0.013999999999999999</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="AK3" s="4">
         <v>15</v>
@@ -1864,13 +1876,13 @@
         <v>2</v>
       </c>
       <c r="AR3" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS3" s="4">
-        <v>0.0075</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AT3" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AU3" s="4">
         <v>6</v>
@@ -1879,10 +1891,10 @@
         <v>6</v>
       </c>
       <c r="AW3" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX3" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AY3" s="4">
         <v>6</v>
@@ -1891,10 +1903,10 @@
         <v>6</v>
       </c>
       <c r="BA3" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB3" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC3" s="4">
         <v>0</v>
@@ -1905,8 +1917,11 @@
       <c r="BF3" s="5">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:58">
+      <c r="BG3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -2069,8 +2084,11 @@
       <c r="BF4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:58">
+      <c r="BG4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
       <c r="B5" s="4">
         <v>6</v>
       </c>
@@ -2231,8 +2249,11 @@
       <c r="BF5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:58">
+      <c r="BG5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2261,34 +2282,34 @@
         <v>2035</v>
       </c>
       <c r="K6" s="4">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="L6" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M6" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6" s="4">
-        <v>0.0148</v>
+        <v>0.019</v>
       </c>
       <c r="O6" s="4">
-        <v>0.0443</v>
+        <v>0.044000000000000004</v>
       </c>
       <c r="P6" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" s="4">
-        <v>0.024300000000000002</v>
+        <v>0.025</v>
       </c>
       <c r="S6" s="4">
         <v>0.0555</v>
       </c>
       <c r="T6" s="4">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="V6" s="4">
         <v>10</v>
@@ -2315,7 +2336,7 @@
         <v>0.021</v>
       </c>
       <c r="AD6" s="4">
-        <v>0.2335</v>
+        <v>0.24</v>
       </c>
       <c r="AE6" s="4">
         <v>10</v>
@@ -2345,25 +2366,25 @@
         <v>1</v>
       </c>
       <c r="AN6" s="4">
-        <v>0.6751999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AO6" s="4">
         <v>0</v>
       </c>
       <c r="AP6" s="4">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6" s="4">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AR6" s="4">
-        <v>0.0345</v>
+        <v>0.032</v>
       </c>
       <c r="AS6" s="4">
-        <v>0.035</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="AT6" s="4">
-        <v>0.0085</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU6" s="4">
         <v>6</v>
@@ -2372,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="AW6" s="4">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="AX6" s="4">
-        <v>0.0085</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY6" s="4">
         <v>6</v>
@@ -2384,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="BA6" s="4">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="BB6" s="4">
         <v>0.0005</v>
@@ -2401,8 +2422,11 @@
       <c r="BF6" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:58">
+      <c r="BG6" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2521,40 +2545,40 @@
         <v>0</v>
       </c>
       <c r="AP7" s="4">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="4">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="4">
-        <v>0.022000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="4">
         <v>0.004</v>
@@ -2571,8 +2595,11 @@
       <c r="BF7" s="4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:58">
+      <c r="BG7" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -2691,40 +2718,40 @@
         <v>0</v>
       </c>
       <c r="AP8" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="4">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="4">
         <v>0.006500000000000001</v>
@@ -2741,8 +2768,11 @@
       <c r="BF8" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:58">
+      <c r="BG8" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="B9" s="4">
         <v>11</v>
       </c>
@@ -2861,40 +2891,40 @@
         <v>0</v>
       </c>
       <c r="AP9" s="4">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="4">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="4">
         <v>0</v>
       </c>
       <c r="AW9" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="4">
         <v>0</v>
       </c>
       <c r="BA9" s="4">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="4">
         <v>0.004</v>
@@ -2911,8 +2941,11 @@
       <c r="BF9" s="4">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:58">
+      <c r="BG9" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -3013,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0.013999999999999999</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="AK10" s="4">
         <v>15</v>
@@ -3028,22 +3061,22 @@
         <v>0.75</v>
       </c>
       <c r="AO10" s="4">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="AP10" s="4">
         <v>1.5</v>
       </c>
       <c r="AQ10" s="4">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR10" s="4">
-        <v>0.025</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="AS10" s="4">
         <v>0.0075</v>
       </c>
       <c r="AT10" s="4">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="AU10" s="4">
         <v>6</v>
@@ -3052,10 +3085,10 @@
         <v>6</v>
       </c>
       <c r="AW10" s="4">
-        <v>0.0025</v>
+        <v>0.0015</v>
       </c>
       <c r="AX10" s="4">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="AY10" s="4">
         <v>6</v>
@@ -3064,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="BA10" s="4">
-        <v>0.0025</v>
+        <v>0.0015</v>
       </c>
       <c r="BB10" s="4">
         <v>0.0005</v>
@@ -3081,8 +3114,11 @@
       <c r="BF10" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:58">
+      <c r="BG10" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -3123,7 +3159,7 @@
         <v>0.019</v>
       </c>
       <c r="O11" s="4">
-        <v>0.0285</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="P11" s="4">
         <v>36</v>
@@ -3132,7 +3168,7 @@
         <v>24</v>
       </c>
       <c r="R11" s="4">
-        <v>0.021</v>
+        <v>0.013999999999999999</v>
       </c>
       <c r="S11" s="4">
         <v>0.07200000000000001</v>
@@ -3251,8 +3287,11 @@
       <c r="BF11" s="4">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:58">
+      <c r="BG11" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -3293,7 +3332,7 @@
         <v>0.019</v>
       </c>
       <c r="O12" s="4">
-        <v>0.025</v>
+        <v>0.017</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
@@ -3302,7 +3341,7 @@
         <v>24</v>
       </c>
       <c r="R12" s="4">
-        <v>0.021</v>
+        <v>0.013999999999999999</v>
       </c>
       <c r="S12" s="4">
         <v>0.0748</v>
@@ -3353,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>0.018000000000000002</v>
+        <v>0.018500000000000003</v>
       </c>
       <c r="AK12" s="4">
         <v>12</v>
@@ -3368,7 +3407,7 @@
         <v>0.65</v>
       </c>
       <c r="AO12" s="4">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="AP12" s="4">
         <v>1.25</v>
@@ -3421,8 +3460,11 @@
       <c r="BF12" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:58">
+      <c r="BG12" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -3463,7 +3505,7 @@
         <v>0.019</v>
       </c>
       <c r="O13" s="4">
-        <v>0.016</v>
+        <v>0.0265</v>
       </c>
       <c r="P13" s="4">
         <v>36</v>
@@ -3472,13 +3514,13 @@
         <v>24</v>
       </c>
       <c r="R13" s="4">
-        <v>0.013000000000000001</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="S13" s="4">
-        <v>0.06849999999999999</v>
+        <v>0.058499999999999996</v>
       </c>
       <c r="T13" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="V13" s="4">
         <v>15</v>
@@ -3520,13 +3562,13 @@
         <v>113</v>
       </c>
       <c r="AI13" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0.0125</v>
+        <v>0.015</v>
       </c>
       <c r="AK13" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AL13" s="4">
         <v>180</v>
@@ -3538,13 +3580,13 @@
         <v>0.65</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AP13" s="4">
         <v>1.25</v>
       </c>
       <c r="AQ13" s="4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR13" s="4">
         <v>0.025</v>
@@ -3580,10 +3622,10 @@
         <v>0.0005</v>
       </c>
       <c r="BC13" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="4" t="s">
         <v>131</v>
@@ -3591,8 +3633,11 @@
       <c r="BF13" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:58">
+      <c r="BG13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -3633,7 +3678,7 @@
         <v>0.019</v>
       </c>
       <c r="O14" s="4">
-        <v>0.018000000000000002</v>
+        <v>0.021</v>
       </c>
       <c r="P14" s="4">
         <v>36</v>
@@ -3642,13 +3687,13 @@
         <v>24</v>
       </c>
       <c r="R14" s="4">
-        <v>0.015</v>
+        <v>0.0175</v>
       </c>
       <c r="S14" s="4">
-        <v>0.0655</v>
+        <v>0.06</v>
       </c>
       <c r="T14" s="4">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="V14" s="4">
         <v>15</v>
@@ -3660,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="4">
         <v>39</v>
@@ -3690,13 +3735,13 @@
         <v>113</v>
       </c>
       <c r="AI14" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AJ14" s="4">
-        <v>0.022000000000000002</v>
+        <v>0.015</v>
       </c>
       <c r="AK14" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL14" s="4">
         <v>180</v>
@@ -3708,16 +3753,16 @@
         <v>0.65</v>
       </c>
       <c r="AO14" s="4">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AP14" s="4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14" s="4">
         <v>1.5</v>
       </c>
       <c r="AR14" s="4">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="AS14" s="4">
         <v>0.0125</v>
@@ -3732,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="AW14" s="4">
-        <v>0.0025</v>
+        <v>0.0015</v>
       </c>
       <c r="AX14" s="4">
         <v>0.006999999999999999</v>
@@ -3744,13 +3789,13 @@
         <v>6</v>
       </c>
       <c r="BA14" s="4">
-        <v>0.0025</v>
+        <v>0.0015</v>
       </c>
       <c r="BB14" s="4">
         <v>0.0005</v>
       </c>
       <c r="BC14" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD14" s="4">
         <v>1</v>
@@ -3759,7 +3804,10 @@
         <v>131</v>
       </c>
       <c r="BF14" s="4">
-        <v>0.8</v>
+        <v>5</v>
+      </c>
+      <c r="BG14" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3769,40 +3817,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" style="1" width="2"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" style="1" width="9"/>
-    <col customWidth="true" max="3" min="3" style="1" width="11.28515625"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" style="1" width="17"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" style="1" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="6" min="6" style="1" width="16.140625"/>
-    <col bestFit="true" customWidth="true" max="7" min="7" style="1" width="17.42578125"/>
-    <col bestFit="true" customWidth="true" max="8" min="8" style="1" width="15.28515625"/>
-    <col bestFit="true" customWidth="true" max="9" min="9" style="1" width="11"/>
-    <col bestFit="true" customWidth="true" max="10" min="10" style="1" width="20.28515625"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" style="1" width="12.7109375"/>
-    <col bestFit="true" customWidth="true" max="12" min="12" style="1" width="10.7109375"/>
-    <col bestFit="true" customWidth="true" max="13" min="13" style="1" width="18.42578125"/>
-    <col bestFit="true" customWidth="true" max="14" min="14" style="1" width="12.85546875"/>
-    <col bestFit="true" customWidth="true" max="15" min="15" style="1" width="10.7109375"/>
-    <col bestFit="true" customWidth="true" max="16" min="16" style="1" width="11.28515625"/>
-    <col bestFit="true" customWidth="true" max="17" min="17" style="1" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="18" min="18" style="1" width="18.140625"/>
-    <col bestFit="true" customWidth="true" max="19" min="19" style="1" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="20" min="20" style="1" width="5.140625"/>
-    <col bestFit="true" customWidth="true" max="21" min="21" style="1" width="13.42578125"/>
-    <col bestFit="true" customWidth="true" max="22" min="22" style="1" width="8.5703125"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" style="1" width="11.5703125"/>
-    <col bestFit="true" customWidth="true" max="24" min="24" style="1" width="17.5703125"/>
-    <col max="16384" min="25" style="1" width="45.85546875"/>
+    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="45.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -3876,7 +3924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +3995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -3986,7 +4034,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -4025,7 +4073,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -4064,7 +4112,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -4103,7 +4151,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -4142,7 +4190,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -4181,7 +4229,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -4220,7 +4268,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -4259,7 +4307,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -4297,7 +4345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -4335,7 +4383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -4374,7 +4422,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -4412,7 +4460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -4450,7 +4498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -4488,7 +4536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -4526,7 +4574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -4564,7 +4612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -4602,7 +4650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -4640,7 +4688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -4678,7 +4726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -4716,7 +4764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -4754,7 +4802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4792,7 +4840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -4830,7 +4878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -4868,7 +4916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -4906,7 +4954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -4944,7 +4992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -4982,7 +5030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -5020,7 +5068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -5058,7 +5106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:23">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -5096,7 +5144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:23">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -5134,7 +5182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -5174,7 +5222,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="15990" windowWidth="24560" xWindow="-25140" yWindow="5260"/>
+    <workbookView windowHeight="23500" windowWidth="38620" xWindow="-38510" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -2423,7 +2423,7 @@
         <v>14</v>
       </c>
       <c r="BG6" s="6">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:59">
@@ -2455,7 +2455,7 @@
         <v>2035</v>
       </c>
       <c r="K7" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L7" s="4">
         <v>18</v>
@@ -2464,10 +2464,10 @@
         <v>18</v>
       </c>
       <c r="N7" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O7" s="4">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="P7" s="4">
         <v>36</v>
@@ -2476,10 +2476,10 @@
         <v>24</v>
       </c>
       <c r="R7" s="4">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="S7" s="4">
-        <v>0.054000000000000006</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="T7" s="4">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD7" s="4">
         <v>0.16</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC7" s="4">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>1.25</v>
       </c>
       <c r="BG7" s="6">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -2628,7 +2628,7 @@
         <v>2035</v>
       </c>
       <c r="K8" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L8" s="4">
         <v>18</v>
@@ -2637,10 +2637,10 @@
         <v>18</v>
       </c>
       <c r="N8" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O8" s="4">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="P8" s="4">
         <v>30</v>
@@ -2649,10 +2649,10 @@
         <v>24</v>
       </c>
       <c r="R8" s="4">
-        <v>0.0195</v>
+        <v>1.95E-2</v>
       </c>
       <c r="S8" s="4">
-        <v>0.054000000000000006</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="T8" s="4">
         <v>5</v>
@@ -2679,7 +2679,7 @@
         <v>0.5</v>
       </c>
       <c r="AC8" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD8" s="4">
         <v>0.11</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="4">
-        <v>0.006500000000000001</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="BC8" s="4">
         <v>3</v>
@@ -2769,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="BG8" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:59">
@@ -2801,7 +2801,7 @@
         <v>2035</v>
       </c>
       <c r="K9" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L9" s="4">
         <v>18</v>
@@ -2810,10 +2810,10 @@
         <v>18</v>
       </c>
       <c r="N9" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O9" s="4">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P9" s="4">
         <v>30</v>
@@ -2822,10 +2822,10 @@
         <v>24</v>
       </c>
       <c r="R9" s="4">
-        <v>0.0215</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="S9" s="4">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="T9" s="4">
         <v>3.3</v>
@@ -2852,10 +2852,10 @@
         <v>0.5</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.026000000000000002</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE9" s="4">
         <v>1</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC9" s="4">
         <v>6</v>
@@ -2942,7 +2942,7 @@
         <v>2.9</v>
       </c>
       <c r="BG9" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -2974,7 +2974,7 @@
         <v>2040</v>
       </c>
       <c r="K10" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L10" s="4">
         <v>18</v>
@@ -2983,10 +2983,10 @@
         <v>18</v>
       </c>
       <c r="N10" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O10" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="P10" s="4">
         <v>24</v>
@@ -2995,10 +2995,10 @@
         <v>36</v>
       </c>
       <c r="R10" s="4">
-        <v>0.013000000000000001</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="S10" s="4">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="T10" s="4">
         <v>3.5</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0.018000000000000002</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="AK10" s="4">
         <v>15</v>
@@ -3070,13 +3070,13 @@
         <v>1.6</v>
       </c>
       <c r="AR10" s="4">
-        <v>0.027000000000000003</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="AS10" s="4">
-        <v>0.0075</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AT10" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AU10" s="4">
         <v>6</v>
@@ -3085,10 +3085,10 @@
         <v>6</v>
       </c>
       <c r="AW10" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AX10" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY10" s="4">
         <v>6</v>
@@ -3097,10 +3097,10 @@
         <v>6</v>
       </c>
       <c r="BA10" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="BB10" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC10" s="4">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>1.6</v>
       </c>
       <c r="BG10" s="6">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:59">
@@ -3147,7 +3147,7 @@
         <v>2035</v>
       </c>
       <c r="K11" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L11" s="4">
         <v>18</v>
@@ -3156,10 +3156,10 @@
         <v>18</v>
       </c>
       <c r="N11" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O11" s="4">
-        <v>0.018000000000000002</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="P11" s="4">
         <v>36</v>
@@ -3168,10 +3168,10 @@
         <v>24</v>
       </c>
       <c r="R11" s="4">
-        <v>0.013999999999999999</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="S11" s="4">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="T11" s="4">
         <v>4</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AK11" s="4">
         <v>10</v>
@@ -3243,13 +3243,13 @@
         <v>2</v>
       </c>
       <c r="AR11" s="4">
-        <v>0.052000000000000005</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="AS11" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AT11" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU11" s="4">
         <v>6</v>
@@ -3258,10 +3258,10 @@
         <v>6</v>
       </c>
       <c r="AW11" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX11" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY11" s="4">
         <v>6</v>
@@ -3270,10 +3270,10 @@
         <v>6</v>
       </c>
       <c r="BA11" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB11" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC11" s="4">
         <v>4</v>
@@ -3285,7 +3285,7 @@
         <v>131</v>
       </c>
       <c r="BF11" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG11" s="6">
         <v>100</v>
@@ -3320,7 +3320,7 @@
         <v>2035</v>
       </c>
       <c r="K12" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L12" s="4">
         <v>18</v>
@@ -3329,10 +3329,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O12" s="4">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
@@ -3341,10 +3341,10 @@
         <v>24</v>
       </c>
       <c r="R12" s="4">
-        <v>0.013999999999999999</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="S12" s="4">
-        <v>0.0748</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="T12" s="4">
         <v>5</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>0.018500000000000003</v>
+        <v>1.8500000000000003E-2</v>
       </c>
       <c r="AK12" s="4">
         <v>12</v>
@@ -3416,13 +3416,13 @@
         <v>1.5</v>
       </c>
       <c r="AR12" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS12" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT12" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU12" s="4">
         <v>6</v>
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="AW12" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX12" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY12" s="4">
         <v>6</v>
@@ -3443,10 +3443,10 @@
         <v>6</v>
       </c>
       <c r="BA12" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB12" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC12" s="4">
         <v>4</v>
@@ -3493,7 +3493,7 @@
         <v>2035</v>
       </c>
       <c r="K13" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L13" s="4">
         <v>18</v>
@@ -3502,10 +3502,10 @@
         <v>18</v>
       </c>
       <c r="N13" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O13" s="4">
-        <v>0.0265</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="P13" s="4">
         <v>36</v>
@@ -3514,10 +3514,10 @@
         <v>24</v>
       </c>
       <c r="R13" s="4">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="S13" s="4">
-        <v>0.058499999999999996</v>
+        <v>5.8499999999999996E-2</v>
       </c>
       <c r="T13" s="4">
         <v>2.5</v>
@@ -3565,7 +3565,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AK13" s="4">
         <v>9</v>
@@ -3589,13 +3589,13 @@
         <v>1.5</v>
       </c>
       <c r="AR13" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS13" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT13" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU13" s="4">
         <v>6</v>
@@ -3604,10 +3604,10 @@
         <v>6</v>
       </c>
       <c r="AW13" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX13" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY13" s="4">
         <v>6</v>
@@ -3616,10 +3616,10 @@
         <v>6</v>
       </c>
       <c r="BA13" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB13" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC13" s="4">
         <v>3</v>
@@ -3666,7 +3666,7 @@
         <v>2035</v>
       </c>
       <c r="K14" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L14" s="4">
         <v>18</v>
@@ -3675,10 +3675,10 @@
         <v>18</v>
       </c>
       <c r="N14" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O14" s="4">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="P14" s="4">
         <v>36</v>
@@ -3687,7 +3687,7 @@
         <v>24</v>
       </c>
       <c r="R14" s="4">
-        <v>0.0175</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="S14" s="4">
         <v>0.06</v>
@@ -3738,7 +3738,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ14" s="4">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AK14" s="4">
         <v>9</v>
@@ -3762,13 +3762,13 @@
         <v>1.5</v>
       </c>
       <c r="AR14" s="4">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AS14" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT14" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU14" s="4">
         <v>6</v>
@@ -3777,10 +3777,10 @@
         <v>6</v>
       </c>
       <c r="AW14" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AX14" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY14" s="4">
         <v>6</v>
@@ -3789,10 +3789,10 @@
         <v>6</v>
       </c>
       <c r="BA14" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="BB14" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC14" s="4">
         <v>3</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -2974,7 +2974,7 @@
         <v>2040</v>
       </c>
       <c r="K10" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L10" s="4">
         <v>18</v>
@@ -2983,10 +2983,10 @@
         <v>18</v>
       </c>
       <c r="N10" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O10" s="4">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="P10" s="4">
         <v>24</v>
@@ -2995,10 +2995,10 @@
         <v>36</v>
       </c>
       <c r="R10" s="4">
-        <v>1.3000000000000001E-2</v>
+        <v>0.013000000000000001</v>
       </c>
       <c r="S10" s="4">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="T10" s="4">
         <v>3.5</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>1.8000000000000002E-2</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="AK10" s="4">
         <v>15</v>
@@ -3070,13 +3070,13 @@
         <v>1.6</v>
       </c>
       <c r="AR10" s="4">
-        <v>2.7000000000000003E-2</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="AS10" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>0.0075</v>
       </c>
       <c r="AT10" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AU10" s="4">
         <v>6</v>
@@ -3085,10 +3085,10 @@
         <v>6</v>
       </c>
       <c r="AW10" s="4">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="AX10" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AY10" s="4">
         <v>6</v>
@@ -3097,10 +3097,10 @@
         <v>6</v>
       </c>
       <c r="BA10" s="4">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="BB10" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="BC10" s="4">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>1.6</v>
       </c>
       <c r="BG10" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:59">

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="23500" windowWidth="38620" xWindow="-38510" yWindow="-110"/>
+    <workbookView windowHeight="31920" windowWidth="57840" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -1333,8 +1333,8 @@
   <dimension ref="A1:BG14"/>
   <sheetViews>
     <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="AY1" xSplit="3"/>
-      <selection activeCell="BG4" pane="topRight" sqref="BG4:BG14"/>
+      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
+      <selection activeCell="AR6" pane="topRight" sqref="AR6:AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -1918,7 +1918,7 @@
         <v>1.6</v>
       </c>
       <c r="BG3" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:59">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:59">
@@ -2372,40 +2372,40 @@
         <v>0</v>
       </c>
       <c r="AP6" s="4">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="4">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="4">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="AS6" s="4">
-        <v>0.022000000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="AT6" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="4">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="4">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="4">
         <v>0.0005</v>
@@ -2423,7 +2423,7 @@
         <v>14</v>
       </c>
       <c r="BG6" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:59">
@@ -2455,7 +2455,7 @@
         <v>2035</v>
       </c>
       <c r="K7" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L7" s="4">
         <v>18</v>
@@ -2464,10 +2464,10 @@
         <v>18</v>
       </c>
       <c r="N7" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O7" s="4">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
       <c r="P7" s="4">
         <v>36</v>
@@ -2476,10 +2476,10 @@
         <v>24</v>
       </c>
       <c r="R7" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.022000000000000002</v>
       </c>
       <c r="S7" s="4">
-        <v>5.4000000000000006E-2</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="T7" s="4">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7" s="4">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="AD7" s="4">
         <v>0.16</v>
@@ -2545,43 +2545,43 @@
         <v>0</v>
       </c>
       <c r="AP7" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" s="4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AR7" s="4">
-        <v>0</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="AS7" s="4">
         <v>0</v>
       </c>
       <c r="AT7" s="4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AU7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW7" s="4">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="AX7" s="4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AY7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA7" s="4">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="BB7" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="BC7" s="4">
         <v>1</v>
@@ -2628,7 +2628,7 @@
         <v>2035</v>
       </c>
       <c r="K8" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L8" s="4">
         <v>18</v>
@@ -2637,10 +2637,10 @@
         <v>18</v>
       </c>
       <c r="N8" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O8" s="4">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="P8" s="4">
         <v>30</v>
@@ -2649,13 +2649,13 @@
         <v>24</v>
       </c>
       <c r="R8" s="4">
-        <v>1.95E-2</v>
+        <v>0.0195</v>
       </c>
       <c r="S8" s="4">
-        <v>5.4000000000000006E-2</v>
+        <v>0.054000000000000006</v>
       </c>
       <c r="T8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" s="4">
         <v>10</v>
@@ -2679,7 +2679,7 @@
         <v>0.5</v>
       </c>
       <c r="AC8" s="4">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="AD8" s="4">
         <v>0.11</v>
@@ -2709,52 +2709,52 @@
         <v>60</v>
       </c>
       <c r="AM8" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN8" s="4">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="AO8" s="4">
         <v>0</v>
       </c>
       <c r="AP8" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR8" s="4">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="AS8" s="4">
-        <v>0</v>
+        <v>0.013999999999999999</v>
       </c>
       <c r="AT8" s="4">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AU8" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV8" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW8" s="4">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AX8" s="4">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AY8" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ8" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA8" s="4">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BB8" s="4">
-        <v>6.5000000000000006E-3</v>
+        <v>0.001</v>
       </c>
       <c r="BC8" s="4">
         <v>3</v>
@@ -2801,7 +2801,7 @@
         <v>2035</v>
       </c>
       <c r="K9" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L9" s="4">
         <v>18</v>
@@ -2810,22 +2810,22 @@
         <v>18</v>
       </c>
       <c r="N9" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O9" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="P9" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="4">
         <v>24</v>
       </c>
       <c r="R9" s="4">
-        <v>2.1499999999999998E-2</v>
+        <v>0.0215</v>
       </c>
       <c r="S9" s="4">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="T9" s="4">
         <v>3.3</v>
@@ -2852,10 +2852,10 @@
         <v>0.5</v>
       </c>
       <c r="AC9" s="4">
-        <v>2.6000000000000002E-2</v>
+        <v>0.026000000000000002</v>
       </c>
       <c r="AD9" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AE9" s="4">
         <v>1</v>
@@ -2885,49 +2885,49 @@
         <v>1</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="AO9" s="4">
         <v>0</v>
       </c>
       <c r="AP9" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9" s="4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AR9" s="4">
-        <v>0</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="AS9" s="4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AT9" s="4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AU9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW9" s="4">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="AX9" s="4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AY9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA9" s="4">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="BB9" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.0005</v>
       </c>
       <c r="BC9" s="4">
         <v>6</v>
@@ -2942,7 +2942,7 @@
         <v>2.9</v>
       </c>
       <c r="BG9" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -2974,37 +2974,37 @@
         <v>2040</v>
       </c>
       <c r="K10" s="4">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="L10" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M10" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N10" s="4">
-        <v>0.019</v>
+        <v>0.013999999999999999</v>
       </c>
       <c r="O10" s="4">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="4">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R10" s="4">
-        <v>0.013000000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="S10" s="4">
-        <v>0.0825</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W10" s="4">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.06</v>
+        <v>0.1275</v>
       </c>
       <c r="AE10" s="4">
         <v>10</v>
@@ -3037,7 +3037,7 @@
         <v>10</v>
       </c>
       <c r="AG10" s="4">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AH10" s="4" t="s">
         <v>113</v>
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0.018000000000000002</v>
+        <v>0.029900000000000003</v>
       </c>
       <c r="AK10" s="4">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AL10" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AM10" s="4">
         <v>1</v>
@@ -3061,10 +3061,10 @@
         <v>0.75</v>
       </c>
       <c r="AO10" s="4">
-        <v>0.34</v>
+        <v>0.6</v>
       </c>
       <c r="AP10" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10" s="4">
         <v>1.6</v>
@@ -3079,10 +3079,10 @@
         <v>0.008</v>
       </c>
       <c r="AU10" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV10" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW10" s="4">
         <v>0.0015</v>
@@ -3091,10 +3091,10 @@
         <v>0.008</v>
       </c>
       <c r="AY10" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AZ10" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BA10" s="4">
         <v>0.0015</v>
@@ -3288,7 +3288,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG11" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:59">
@@ -3320,7 +3320,7 @@
         <v>2035</v>
       </c>
       <c r="K12" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L12" s="4">
         <v>18</v>
@@ -3329,10 +3329,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O12" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
@@ -3341,16 +3341,16 @@
         <v>24</v>
       </c>
       <c r="R12" s="4">
-        <v>1.3999999999999999E-2</v>
+        <v>0.013999999999999999</v>
       </c>
       <c r="S12" s="4">
-        <v>7.4800000000000005E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T12" s="4">
         <v>5</v>
       </c>
       <c r="V12" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W12" s="4">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>6</v>
       </c>
       <c r="AG12" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>113</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>1.8500000000000003E-2</v>
+        <v>0.018500000000000003</v>
       </c>
       <c r="AK12" s="4">
         <v>12</v>
@@ -3407,7 +3407,7 @@
         <v>0.65</v>
       </c>
       <c r="AO12" s="4">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP12" s="4">
         <v>1.25</v>
@@ -3416,13 +3416,13 @@
         <v>1.5</v>
       </c>
       <c r="AR12" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS12" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AT12" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU12" s="4">
         <v>6</v>
@@ -3431,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="AW12" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX12" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY12" s="4">
         <v>6</v>
@@ -3443,10 +3443,10 @@
         <v>6</v>
       </c>
       <c r="BA12" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB12" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="BC12" s="4">
         <v>4</v>
@@ -3461,7 +3461,7 @@
         <v>0.8</v>
       </c>
       <c r="BG12" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:59">
@@ -3493,7 +3493,7 @@
         <v>2035</v>
       </c>
       <c r="K13" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L13" s="4">
         <v>18</v>
@@ -3502,28 +3502,28 @@
         <v>18</v>
       </c>
       <c r="N13" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O13" s="4">
-        <v>2.6499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="4">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R13" s="4">
-        <v>2.2000000000000002E-2</v>
+        <v>0.012</v>
       </c>
       <c r="S13" s="4">
-        <v>5.8499999999999996E-2</v>
+        <v>0.084</v>
       </c>
       <c r="T13" s="4">
         <v>2.5</v>
       </c>
       <c r="V13" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="4">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="AE13" s="4">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="AG13" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>113</v>
@@ -3565,13 +3565,13 @@
         <v>0.4</v>
       </c>
       <c r="AJ13" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.0149</v>
       </c>
       <c r="AK13" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL13" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AM13" s="4">
         <v>1</v>
@@ -3580,22 +3580,22 @@
         <v>0.65</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AP13" s="4">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13" s="4">
         <v>1.5</v>
       </c>
       <c r="AR13" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AS13" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AT13" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU13" s="4">
         <v>6</v>
@@ -3604,10 +3604,10 @@
         <v>6</v>
       </c>
       <c r="AW13" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="AX13" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY13" s="4">
         <v>6</v>
@@ -3616,16 +3616,16 @@
         <v>6</v>
       </c>
       <c r="BA13" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="BB13" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="BC13" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="4" t="s">
         <v>131</v>
@@ -3634,7 +3634,7 @@
         <v>0.8</v>
       </c>
       <c r="BG13" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:59">
@@ -3666,7 +3666,7 @@
         <v>2035</v>
       </c>
       <c r="K14" s="4">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="L14" s="4">
         <v>18</v>
@@ -3675,10 +3675,10 @@
         <v>18</v>
       </c>
       <c r="N14" s="4">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="O14" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="P14" s="4">
         <v>36</v>
@@ -3687,7 +3687,7 @@
         <v>24</v>
       </c>
       <c r="R14" s="4">
-        <v>1.7500000000000002E-2</v>
+        <v>0.0175</v>
       </c>
       <c r="S14" s="4">
         <v>0.06</v>
@@ -3738,7 +3738,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ14" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="AK14" s="4">
         <v>9</v>
@@ -3762,13 +3762,13 @@
         <v>1.5</v>
       </c>
       <c r="AR14" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AS14" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AT14" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AU14" s="4">
         <v>6</v>
@@ -3777,10 +3777,10 @@
         <v>6</v>
       </c>
       <c r="AW14" s="4">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="AX14" s="4">
-        <v>6.9999999999999993E-3</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AY14" s="4">
         <v>6</v>
@@ -3789,10 +3789,10 @@
         <v>6</v>
       </c>
       <c r="BA14" s="4">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="BB14" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="BC14" s="4">
         <v>3</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -2366,46 +2366,46 @@
         <v>1</v>
       </c>
       <c r="AN6" s="4">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AO6" s="4">
         <v>0</v>
       </c>
       <c r="AP6" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6" s="4">
         <v>1</v>
       </c>
       <c r="AR6" s="4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="4">
         <v>0.03</v>
       </c>
       <c r="AT6" s="4">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="AU6" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV6" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="4">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AX6" s="4">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="AY6" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA6" s="4">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BB6" s="4">
         <v>0.0005</v>
@@ -2596,7 +2596,7 @@
         <v>1.25</v>
       </c>
       <c r="BG7" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -2709,10 +2709,10 @@
         <v>60</v>
       </c>
       <c r="AM8" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO8" s="4">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="BG8" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:59">
@@ -2879,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="AL9" s="4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AM9" s="4">
         <v>1</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="4">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>1.6</v>
       </c>
       <c r="AR9" s="4">
-        <v>0.027000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="4">
         <v>0.008</v>
@@ -2974,34 +2974,34 @@
         <v>2040</v>
       </c>
       <c r="K10" s="4">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="L10" s="4">
         <v>12</v>
       </c>
       <c r="M10" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N10" s="4">
-        <v>0.013999999999999999</v>
+        <v>0.019</v>
       </c>
       <c r="O10" s="4">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="P10" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R10" s="4">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="S10" s="4">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="T10" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V10" s="4">
         <v>20</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.1275</v>
+        <v>0.06</v>
       </c>
       <c r="AE10" s="4">
         <v>10</v>
@@ -3037,7 +3037,7 @@
         <v>10</v>
       </c>
       <c r="AG10" s="4">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="4" t="s">
         <v>113</v>
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0.029900000000000003</v>
+        <v>0.0175</v>
       </c>
       <c r="AK10" s="4">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AL10" s="4">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AM10" s="4">
         <v>1</v>
@@ -3061,10 +3061,10 @@
         <v>0.75</v>
       </c>
       <c r="AO10" s="4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP10" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10" s="4">
         <v>1.6</v>
@@ -3076,25 +3076,25 @@
         <v>0.0075</v>
       </c>
       <c r="AT10" s="4">
-        <v>0.008</v>
+        <v>0.0125</v>
       </c>
       <c r="AU10" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="4">
         <v>0.0015</v>
       </c>
       <c r="AX10" s="4">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="AY10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA10" s="4">
         <v>0.0015</v>

--- a/models/Data.xlsx
+++ b/models/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="31920" windowWidth="57840" xWindow="-120" yWindow="-120"/>
+    <workbookView windowHeight="23500" windowWidth="38620" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Entities" sheetId="1" r:id="rId1"/>
-    <sheet name="Units" sheetId="2" r:id="rId2"/>
-    <sheet name="Growth Items(OLD)" sheetId="4" r:id="rId3"/>
+    <sheet name="Entities" sheetId="5" r:id="rId1"/>
+    <sheet name="EntityModels" sheetId="1" r:id="rId2"/>
+    <sheet name="UnitModels" sheetId="2" r:id="rId3"/>
+    <sheet name="Growth Items(OLD)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="156">
   <si>
     <t>RETT</t>
   </si>
@@ -459,6 +460,42 @@
   </si>
   <si>
     <t>Sims</t>
+  </si>
+  <si>
+    <t>ParentID</t>
+  </si>
+  <si>
+    <t>EntityType</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Acq Month</t>
+  </si>
+  <si>
+    <t>Acq Year</t>
+  </si>
+  <si>
+    <t>Disp Month</t>
+  </si>
+  <si>
+    <t>Disp Year</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>v1</t>
   </si>
 </sst>
 </file>
@@ -954,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true"/>
@@ -973,6 +1010,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1329,76 +1369,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BAA125-4F8A-434B-82B0-238C2CAE36E0}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2018</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2016</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>2018</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2018</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2019</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2016</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2016</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>2016</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2017</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2017</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG14"/>
+  <dimension ref="A1:BI19"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
-      <selection activeCell="AR6" pane="topRight" sqref="AR6:AR9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="D3" xSplit="3" ySplit="2"/>
+      <selection activeCell="D1" pane="topRight" sqref="D1"/>
+      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+      <selection activeCell="D7" pane="bottomRight" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" style="4" width="5.140625"/>
-    <col bestFit="true" customWidth="true" max="2" min="2" style="4" width="9.140625"/>
-    <col bestFit="true" customWidth="true" max="3" min="3" style="4" width="15.7109375"/>
-    <col bestFit="true" customWidth="true" max="4" min="4" style="4" width="8.42578125"/>
-    <col bestFit="true" customWidth="true" max="5" min="5" style="4" width="12.140625"/>
-    <col bestFit="true" customWidth="true" max="6" min="6" style="4" width="11.7109375"/>
-    <col customWidth="true" max="7" min="7" style="4" width="12.42578125"/>
-    <col bestFit="true" customWidth="true" max="8" min="8" style="4" width="11.7109375"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" style="4" width="5.1796875"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" style="4" width="9.1796875"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" style="4" width="24.54296875"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" style="4" width="8.6328125"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" style="4" width="12.1796875"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" style="4" width="11.7265625"/>
+    <col customWidth="true" max="7" min="7" style="4" width="12.453125"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" style="4" width="11.7265625"/>
     <col bestFit="true" customWidth="true" max="9" min="9" style="4" width="10"/>
-    <col bestFit="true" customWidth="true" max="10" min="10" style="4" width="11.7109375"/>
-    <col bestFit="true" customWidth="true" max="11" min="11" style="4" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="12" min="12" style="4" width="14.5703125"/>
-    <col bestFit="true" customWidth="true" max="13" min="13" style="4" width="18.7109375"/>
-    <col bestFit="true" customWidth="true" max="14" min="14" style="4" width="8.85546875"/>
-    <col bestFit="true" customWidth="true" max="15" min="15" style="4" width="17.7109375"/>
-    <col bestFit="true" customWidth="true" max="16" min="16" style="4" width="20.28515625"/>
-    <col bestFit="true" customWidth="true" max="17" min="17" style="4" width="13.28515625"/>
-    <col bestFit="true" customWidth="true" max="18" min="18" style="4" width="13.85546875"/>
-    <col bestFit="true" customWidth="true" max="19" min="19" style="4" width="10.5703125"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" style="4" width="11.7265625"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" style="4" width="18.26953125"/>
+    <col bestFit="true" customWidth="true" max="12" min="12" style="4" width="14.54296875"/>
+    <col bestFit="true" customWidth="true" max="13" min="13" style="4" width="18.7265625"/>
+    <col bestFit="true" customWidth="true" max="14" min="14" style="4" width="8.81640625"/>
+    <col bestFit="true" customWidth="true" max="15" min="15" style="4" width="17.7265625"/>
+    <col bestFit="true" customWidth="true" max="16" min="16" style="4" width="20.26953125"/>
+    <col bestFit="true" customWidth="true" max="17" min="17" style="4" width="13.26953125"/>
+    <col bestFit="true" customWidth="true" max="18" min="18" style="4" width="13.81640625"/>
+    <col bestFit="true" customWidth="true" max="19" min="19" style="4" width="10.54296875"/>
     <col bestFit="true" customWidth="true" max="20" min="20" style="4" width="11"/>
-    <col bestFit="true" customWidth="true" max="21" min="21" style="4" width="9.28515625"/>
-    <col bestFit="true" customWidth="true" max="22" min="22" style="4" width="11.42578125"/>
-    <col bestFit="true" customWidth="true" max="23" min="23" style="4" width="5.5703125"/>
-    <col bestFit="true" customWidth="true" max="24" min="24" style="4" width="5.140625"/>
-    <col bestFit="true" customWidth="true" max="25" min="25" style="4" width="13.7109375"/>
-    <col bestFit="true" customWidth="true" max="26" min="26" style="4" width="11.7109375"/>
+    <col bestFit="true" customWidth="true" max="21" min="21" style="4" width="9.26953125"/>
+    <col bestFit="true" customWidth="true" max="22" min="22" style="4" width="11.453125"/>
+    <col bestFit="true" customWidth="true" max="23" min="23" style="4" width="5.54296875"/>
+    <col bestFit="true" customWidth="true" max="24" min="24" style="4" width="5.1796875"/>
+    <col bestFit="true" customWidth="true" max="25" min="25" style="4" width="13.7265625"/>
+    <col bestFit="true" customWidth="true" max="26" min="26" style="4" width="11.7265625"/>
     <col bestFit="true" customWidth="true" max="27" min="27" style="4" width="11"/>
     <col bestFit="true" customWidth="true" max="28" min="28" style="4" width="8"/>
     <col bestFit="true" customWidth="true" max="29" min="29" style="4" width="10"/>
-    <col bestFit="true" customWidth="true" max="30" min="30" style="4" width="14.140625"/>
+    <col bestFit="true" customWidth="true" max="30" min="30" style="4" width="14.1796875"/>
     <col bestFit="true" customWidth="true" max="31" min="31" style="4" width="12"/>
-    <col bestFit="true" customWidth="true" max="32" min="32" style="4" width="14.5703125"/>
-    <col bestFit="true" customWidth="true" max="33" min="33" style="4" width="19.5703125"/>
-    <col bestFit="true" customWidth="true" max="34" min="34" style="4" width="10.28515625"/>
+    <col bestFit="true" customWidth="true" max="32" min="32" style="4" width="14.54296875"/>
+    <col bestFit="true" customWidth="true" max="33" min="33" style="4" width="19.54296875"/>
+    <col bestFit="true" customWidth="true" max="34" min="34" style="4" width="10.26953125"/>
     <col bestFit="true" customWidth="true" max="35" min="35" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="36" min="36" style="4" width="12.42578125"/>
-    <col bestFit="true" customWidth="true" max="37" min="37" style="4" width="9.140625"/>
-    <col bestFit="true" customWidth="true" max="38" min="38" style="4" width="10.140625"/>
-    <col bestFit="true" customWidth="true" max="39" min="39" style="4" width="16.140625"/>
+    <col bestFit="true" customWidth="true" max="36" min="36" style="4" width="12.453125"/>
+    <col bestFit="true" customWidth="true" max="37" min="37" style="4" width="9.1796875"/>
+    <col bestFit="true" customWidth="true" max="38" min="38" style="4" width="10.1796875"/>
+    <col bestFit="true" customWidth="true" max="39" min="39" style="4" width="16.1796875"/>
     <col bestFit="true" customWidth="true" max="40" min="40" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="41" min="41" style="4" width="8.140625"/>
-    <col bestFit="true" customWidth="true" max="42" min="42" style="4" width="9.85546875"/>
+    <col bestFit="true" customWidth="true" max="41" min="41" style="4" width="8.1796875"/>
+    <col bestFit="true" customWidth="true" max="42" min="42" style="4" width="9.81640625"/>
     <col bestFit="true" customWidth="true" max="43" min="43" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="44" min="44" style="4" width="11.140625"/>
+    <col bestFit="true" customWidth="true" max="44" min="44" style="4" width="11.1796875"/>
     <col bestFit="true" customWidth="true" max="45" min="45" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="46" min="46" style="4" width="18.28515625"/>
-    <col bestFit="true" customWidth="true" max="47" min="47" style="4" width="14.5703125"/>
-    <col bestFit="true" customWidth="true" max="48" min="48" style="4" width="13.7109375"/>
+    <col bestFit="true" customWidth="true" max="46" min="46" style="4" width="18.26953125"/>
+    <col bestFit="true" customWidth="true" max="47" min="47" style="4" width="14.54296875"/>
+    <col bestFit="true" customWidth="true" max="48" min="48" style="4" width="13.7265625"/>
     <col bestFit="true" customWidth="true" max="49" min="49" style="4" width="14"/>
-    <col bestFit="true" customWidth="true" max="50" min="50" style="4" width="14.7109375"/>
-    <col bestFit="true" customWidth="true" max="51" min="51" style="4" width="15.140625"/>
-    <col bestFit="true" customWidth="true" max="52" min="52" style="4" width="14.28515625"/>
-    <col bestFit="true" customWidth="true" max="53" min="53" style="4" width="14.5703125"/>
+    <col bestFit="true" customWidth="true" max="50" min="50" style="4" width="14.7265625"/>
+    <col bestFit="true" customWidth="true" max="51" min="51" style="4" width="15.1796875"/>
+    <col bestFit="true" customWidth="true" max="52" min="52" style="4" width="14.26953125"/>
+    <col bestFit="true" customWidth="true" max="53" min="53" style="4" width="14.54296875"/>
     <col bestFit="true" customWidth="true" max="54" min="54" style="4" width="8"/>
-    <col bestFit="true" customWidth="true" max="56" min="55" style="4" width="10.5703125"/>
-    <col bestFit="true" customWidth="true" max="57" min="57" style="4" width="6.28515625"/>
-    <col max="16384" min="58" style="4" width="12.5703125"/>
+    <col bestFit="true" customWidth="true" max="56" min="55" style="4" width="10.54296875"/>
+    <col bestFit="true" customWidth="true" max="57" min="57" style="4" width="6.26953125"/>
+    <col max="16384" min="58" style="4" width="12.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="3" customFormat="true">
+    <row r="1" spans="1:61" s="3" customFormat="true">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -1576,8 +2007,14 @@
       <c r="BG1" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" s="5" customFormat="true" ht="45">
+      <c r="BH1" s="3">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" s="5" customFormat="true" ht="43.5">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1752,8 +2189,14 @@
       <c r="BG2" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:59" s="5" customFormat="true">
+      <c r="BH2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" s="5" customFormat="true">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1920,13 +2363,20 @@
       <c r="BG3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:59">
+      <c r="BH3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
       <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>128</v>
+      <c r="C4" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH4,Entities!$B$3:C104856,2,FALSE),"_",F4,"_",E4,"_",BI4)</f>
+        <v>OGANICA USA_2021_1_v1</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -2085,15 +2535,22 @@
         <v>0</v>
       </c>
       <c r="BG4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH4" s="7">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61">
       <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>129</v>
+      <c r="C5" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH5,Entities!$B$3:C104857,2,FALSE),"_",F5,"_",E5,"_",BI5)</f>
+        <v>OGANICA EU_2021_1_v1</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4">
@@ -2250,15 +2707,22 @@
         <v>0</v>
       </c>
       <c r="BG5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH5" s="7">
+        <v>6</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>132</v>
+      <c r="C6" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH6,Entities!$B$3:C104858,2,FALSE),"_",F6,"_",E6,"_",BI6)</f>
+        <v>Small Office_2021_1_v1</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -2282,37 +2746,37 @@
         <v>2035</v>
       </c>
       <c r="K6" s="4">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>0.044000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4">
-        <v>0.0555</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W6" s="4">
         <v>0</v>
@@ -2324,114 +2788,121 @@
         <v>0</v>
       </c>
       <c r="Z6" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="4">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="4">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="4">
         <v>0</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="AI6" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="4">
         <v>0</v>
       </c>
       <c r="AK6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="4">
         <v>0</v>
       </c>
       <c r="AP6" s="4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="4">
         <v>0</v>
       </c>
       <c r="AS6" s="4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="4">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="4">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="4">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="4" t="s">
         <v>130</v>
       </c>
       <c r="BF6" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="7">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>133</v>
+      <c r="C7" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH7,Entities!$B$3:C104859,2,FALSE),"_",F7,"_",E7,"_",BI7)</f>
+        <v>Residential_2021_1_v1</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -2455,7 +2926,7 @@
         <v>2035</v>
       </c>
       <c r="K7" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L7" s="4">
         <v>18</v>
@@ -2464,10 +2935,10 @@
         <v>18</v>
       </c>
       <c r="N7" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O7" s="4">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="P7" s="4">
         <v>36</v>
@@ -2476,10 +2947,10 @@
         <v>24</v>
       </c>
       <c r="R7" s="4">
-        <v>0.022000000000000002</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="S7" s="4">
-        <v>0.054000000000000006</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="T7" s="4">
         <v>2</v>
@@ -2503,10 +2974,10 @@
         <v>0.15</v>
       </c>
       <c r="AB7" s="4">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.024</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD7" s="4">
         <v>0.16</v>
@@ -2551,13 +3022,13 @@
         <v>1.6</v>
       </c>
       <c r="AR7" s="4">
-        <v>0.027000000000000003</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="AS7" s="4">
         <v>0</v>
       </c>
       <c r="AT7" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AU7" s="4">
         <v>6</v>
@@ -2566,10 +3037,10 @@
         <v>6</v>
       </c>
       <c r="AW7" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AX7" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY7" s="4">
         <v>6</v>
@@ -2578,10 +3049,10 @@
         <v>6</v>
       </c>
       <c r="BA7" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="BB7" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC7" s="4">
         <v>1</v>
@@ -2596,15 +3067,22 @@
         <v>1.25</v>
       </c>
       <c r="BG7" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH7" s="7">
+        <v>4</v>
+      </c>
+      <c r="BI7" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>134</v>
+      <c r="C8" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH8,Entities!$B$3:C104860,2,FALSE),"_",F8,"_",E8,"_",BI8)</f>
+        <v>Light Industrial_2021_1_v1</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -2628,7 +3106,7 @@
         <v>2035</v>
       </c>
       <c r="K8" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L8" s="4">
         <v>18</v>
@@ -2637,10 +3115,10 @@
         <v>18</v>
       </c>
       <c r="N8" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O8" s="4">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="P8" s="4">
         <v>30</v>
@@ -2649,10 +3127,10 @@
         <v>24</v>
       </c>
       <c r="R8" s="4">
-        <v>0.0195</v>
+        <v>1.95E-2</v>
       </c>
       <c r="S8" s="4">
-        <v>0.054000000000000006</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="T8" s="4">
         <v>2</v>
@@ -2676,10 +3154,10 @@
         <v>0.15</v>
       </c>
       <c r="AB8" s="4">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AC8" s="4">
-        <v>0.024</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD8" s="4">
         <v>0.11</v>
@@ -2724,13 +3202,13 @@
         <v>1.5</v>
       </c>
       <c r="AR8" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS8" s="4">
-        <v>0.013999999999999999</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="AT8" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AU8" s="4">
         <v>6</v>
@@ -2739,10 +3217,10 @@
         <v>6</v>
       </c>
       <c r="AW8" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AX8" s="4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AY8" s="4">
         <v>6</v>
@@ -2751,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="BA8" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BB8" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BC8" s="4">
         <v>3</v>
@@ -2769,15 +3247,22 @@
         <v>8</v>
       </c>
       <c r="BG8" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH8" s="7">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
       <c r="B9" s="4">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>135</v>
+      <c r="C9" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH9,Entities!$B$3:C104861,2,FALSE),"_",F9,"_",E9,"_",BI9)</f>
+        <v>Logistics_2021_1_v1</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -2801,7 +3286,7 @@
         <v>2035</v>
       </c>
       <c r="K9" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L9" s="4">
         <v>18</v>
@@ -2810,10 +3295,10 @@
         <v>18</v>
       </c>
       <c r="N9" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O9" s="4">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P9" s="4">
         <v>32</v>
@@ -2822,10 +3307,10 @@
         <v>24</v>
       </c>
       <c r="R9" s="4">
-        <v>0.0215</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="S9" s="4">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="T9" s="4">
         <v>3.3</v>
@@ -2849,13 +3334,13 @@
         <v>0.15</v>
       </c>
       <c r="AB9" s="4">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.026000000000000002</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE9" s="4">
         <v>1</v>
@@ -2900,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="AS9" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AT9" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AU9" s="4">
         <v>6</v>
@@ -2912,10 +3397,10 @@
         <v>6</v>
       </c>
       <c r="AW9" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AX9" s="4">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY9" s="4">
         <v>6</v>
@@ -2924,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="BA9" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="BB9" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC9" s="4">
         <v>6</v>
@@ -2942,15 +3427,22 @@
         <v>2.9</v>
       </c>
       <c r="BG9" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH9" s="7">
+        <v>11</v>
+      </c>
+      <c r="BI9" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>122</v>
+      <c r="C10" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH10,Entities!$B$3:C104862,2,FALSE),"_",F10,"_",E10,"_",BI10)</f>
+        <v>Industrial 1_2021_1_v1</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -2983,10 +3475,10 @@
         <v>24</v>
       </c>
       <c r="N10" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O10" s="4">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="P10" s="4">
         <v>18</v>
@@ -2995,16 +3487,16 @@
         <v>18</v>
       </c>
       <c r="R10" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="S10" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T10" s="4">
         <v>4</v>
       </c>
       <c r="V10" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="W10" s="4">
         <v>0</v>
@@ -3046,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0.0175</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="AK10" s="4">
         <v>9</v>
@@ -3070,13 +3562,13 @@
         <v>1.6</v>
       </c>
       <c r="AR10" s="4">
-        <v>0.027000000000000003</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="AS10" s="4">
-        <v>0.0075</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AT10" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AU10" s="4">
         <v>6</v>
@@ -3085,22 +3577,22 @@
         <v>4</v>
       </c>
       <c r="AW10" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AX10" s="4">
-        <v>0.01</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AY10" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ10" s="4">
         <v>4</v>
       </c>
       <c r="BA10" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="BB10" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC10" s="4">
         <v>0</v>
@@ -3115,15 +3607,22 @@
         <v>1.6</v>
       </c>
       <c r="BG10" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH10" s="7">
+        <v>2</v>
+      </c>
+      <c r="BI10" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>114</v>
+      <c r="C11" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH11,Entities!$B$3:C104863,2,FALSE),"_",F11,"_",E11,"_",BI11)</f>
+        <v>Industrial 2_2021_1_v1</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -3288,15 +3787,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BG11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH11" s="7">
+        <v>7</v>
+      </c>
+      <c r="BI11" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>115</v>
+      <c r="C12" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH12,Entities!$B$3:C104864,2,FALSE),"_",F12,"_",E12,"_",BI12)</f>
+        <v>Industrial 3_2021_1_v1</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
@@ -3320,7 +3826,7 @@
         <v>2035</v>
       </c>
       <c r="K12" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L12" s="4">
         <v>18</v>
@@ -3329,10 +3835,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O12" s="4">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="P12" s="4">
         <v>36</v>
@@ -3341,7 +3847,7 @@
         <v>24</v>
       </c>
       <c r="R12" s="4">
-        <v>0.013999999999999999</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="S12" s="4">
         <v>0.05</v>
@@ -3392,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <v>0.018500000000000003</v>
+        <v>1.8500000000000003E-2</v>
       </c>
       <c r="AK12" s="4">
         <v>12</v>
@@ -3416,13 +3922,13 @@
         <v>1.5</v>
       </c>
       <c r="AR12" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS12" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT12" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU12" s="4">
         <v>6</v>
@@ -3431,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="AW12" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX12" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY12" s="4">
         <v>6</v>
@@ -3443,10 +3949,10 @@
         <v>6</v>
       </c>
       <c r="BA12" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB12" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC12" s="4">
         <v>4</v>
@@ -3461,15 +3967,22 @@
         <v>0.8</v>
       </c>
       <c r="BG12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH12" s="7">
+        <v>8</v>
+      </c>
+      <c r="BI12" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>116</v>
+      <c r="C13" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH13,Entities!$B$3:C104865,2,FALSE),"_",F13,"_",E13,"_",BI13)</f>
+        <v>Industrial 4_2021_1_v1</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
@@ -3493,7 +4006,7 @@
         <v>2035</v>
       </c>
       <c r="K13" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L13" s="4">
         <v>18</v>
@@ -3502,7 +4015,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O13" s="4">
         <v>0</v>
@@ -3514,16 +4027,16 @@
         <v>12</v>
       </c>
       <c r="R13" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S13" s="4">
-        <v>0.084</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="T13" s="4">
         <v>2.5</v>
       </c>
       <c r="V13" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
@@ -3565,7 +4078,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0.0149</v>
+        <v>1.49E-2</v>
       </c>
       <c r="AK13" s="4">
         <v>12</v>
@@ -3589,13 +4102,13 @@
         <v>1.5</v>
       </c>
       <c r="AR13" s="4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AS13" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT13" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU13" s="4">
         <v>6</v>
@@ -3604,10 +4117,10 @@
         <v>6</v>
       </c>
       <c r="AW13" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AX13" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY13" s="4">
         <v>6</v>
@@ -3616,10 +4129,10 @@
         <v>6</v>
       </c>
       <c r="BA13" s="4">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BB13" s="4">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="BC13" s="4">
         <v>0</v>
@@ -3634,15 +4147,22 @@
         <v>0.8</v>
       </c>
       <c r="BG13" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59">
+        <v>100</v>
+      </c>
+      <c r="BH13" s="7">
+        <v>9</v>
+      </c>
+      <c r="BI13" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>117</v>
+      <c r="C14" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH14,Entities!$B$3:C104866,2,FALSE),"_",F14,"_",E14,"_",BI14)</f>
+        <v>Industrial 5_2021_1_v1</v>
       </c>
       <c r="D14" s="4">
         <v>6</v>
@@ -3666,7 +4186,7 @@
         <v>2035</v>
       </c>
       <c r="K14" s="4">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L14" s="4">
         <v>18</v>
@@ -3675,10 +4195,10 @@
         <v>18</v>
       </c>
       <c r="N14" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O14" s="4">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="P14" s="4">
         <v>36</v>
@@ -3687,7 +4207,7 @@
         <v>24</v>
       </c>
       <c r="R14" s="4">
-        <v>0.0175</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="S14" s="4">
         <v>0.06</v>
@@ -3738,7 +4258,7 @@
         <v>0.4</v>
       </c>
       <c r="AJ14" s="4">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AK14" s="4">
         <v>9</v>
@@ -3762,13 +4282,13 @@
         <v>1.5</v>
       </c>
       <c r="AR14" s="4">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AS14" s="4">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AT14" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AU14" s="4">
         <v>6</v>
@@ -3777,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="AW14" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AX14" s="4">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="AY14" s="4">
         <v>6</v>
@@ -3789,10 +4309,10 @@
         <v>6</v>
       </c>
       <c r="BA14" s="4">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="BB14" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC14" s="4">
         <v>3</v>
@@ -3808,6 +4328,906 @@
       </c>
       <c r="BG14" s="6">
         <v>100</v>
+      </c>
+      <c r="BH14" s="7">
+        <v>10</v>
+      </c>
+      <c r="BI14" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH15,Entities!$B$3:C104867,2,FALSE),"_",F15,"_",E15,"_",BI15)</f>
+        <v>OGANICA USA_2022_1_v1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="4">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2030</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2035</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>9</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="6">
+        <v>100</v>
+      </c>
+      <c r="BH15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BI15" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH16,Entities!$B$3:C104868,2,FALSE),"_",F16,"_",E16,"_",BI16)</f>
+        <v>Small Office_2022_1_v1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="4">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2030</v>
+      </c>
+      <c r="I16" s="4">
+        <v>12</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2035</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.085</v>
+      </c>
+      <c r="L16" s="4">
+        <v>18</v>
+      </c>
+      <c r="M16" s="4">
+        <v>18</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.019</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.044000000000000004</v>
+      </c>
+      <c r="P16" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>18</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.025</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0.0555</v>
+      </c>
+      <c r="T16" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="V16" s="4">
+        <v>9</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0.016</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>60</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>0.0075</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>0.0075</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>0.0005</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>14</v>
+      </c>
+      <c r="BG16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="BH16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:61">
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH17,Entities!$B$3:C104869,2,FALSE),"_",F17,"_",E17,"_",BI17)</f>
+        <v>Residential_2022_1_v1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="4">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2030</v>
+      </c>
+      <c r="I17" s="4">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2035</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>18</v>
+      </c>
+      <c r="M17" s="4">
+        <v>18</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>24</v>
+      </c>
+      <c r="R17" s="4">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="S17" s="4">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="T17" s="4">
+        <v>2</v>
+      </c>
+      <c r="V17" s="4">
+        <v>9</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>12</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>6</v>
+      </c>
+      <c r="AV17" s="4">
+        <v>6</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ17" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA17" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="BB17" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF17" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="BG17" s="6">
+        <v>100</v>
+      </c>
+      <c r="BH17" s="7">
+        <v>4</v>
+      </c>
+      <c r="BI17" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:61">
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH18,Entities!$B$3:C104870,2,FALSE),"_",F18,"_",E18,"_",BI18)</f>
+        <v>Light Industrial_2022_1_v1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="4">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2030</v>
+      </c>
+      <c r="I18" s="4">
+        <v>12</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2035</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>18</v>
+      </c>
+      <c r="M18" s="4">
+        <v>18</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>24</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1.95E-2</v>
+      </c>
+      <c r="S18" s="4">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="T18" s="4">
+        <v>2</v>
+      </c>
+      <c r="V18" s="4">
+        <v>9</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>60</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="AX18" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA18" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="BB18" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="BC18" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF18" s="4">
+        <v>8</v>
+      </c>
+      <c r="BG18" s="6">
+        <v>100</v>
+      </c>
+      <c r="BH18" s="7">
+        <v>5</v>
+      </c>
+      <c r="BI18" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:61">
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(BH19,Entities!$B$3:C104871,2,FALSE),"_",F19,"_",E19,"_",BI19)</f>
+        <v>Logistics_2022_1_v1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="4">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2030</v>
+      </c>
+      <c r="I19" s="4">
+        <v>12</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2035</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>18</v>
+      </c>
+      <c r="M19" s="4">
+        <v>18</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>24</v>
+      </c>
+      <c r="R19" s="4">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="S19" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="T19" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="V19" s="4">
+        <v>9</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>39</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>8</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>60</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>6</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>6</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA19" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="BB19" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="BC19" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF19" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="BG19" s="6">
+        <v>100</v>
+      </c>
+      <c r="BH19" s="7">
+        <v>11</v>
+      </c>
+      <c r="BI19" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3815,42 +5235,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="45.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="45.85546875" style="1"/>
+    <col min="10" max="10" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="45.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -3924,7 +5347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +5418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -4034,7 +5457,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -4073,7 +5496,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -4112,7 +5535,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -4151,7 +5574,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -4190,7 +5613,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -4229,7 +5652,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -4268,7 +5691,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -4307,7 +5730,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -4345,7 +5768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -4383,7 +5806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -4422,7 +5845,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -4460,7 +5883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -4498,7 +5921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -4536,7 +5959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -4574,7 +5997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -4612,7 +6035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -4650,7 +6073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -4688,7 +6111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -4726,7 +6149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -4764,7 +6187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -4802,7 +6225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4840,7 +6263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -4878,7 +6301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -4916,7 +6339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -4954,7 +6377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -4992,7 +6415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -5030,7 +6453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -5068,7 +6491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -5106,7 +6529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -5144,7 +6567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -5182,7 +6605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -5218,6 +6641,964 @@
       </c>
       <c r="W34" s="1">
         <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G35" s="1">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="1">
+        <v>300000</v>
+      </c>
+      <c r="V35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="W35" s="1">
+        <v>30</v>
+      </c>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G36" s="1">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="1">
+        <v>300000</v>
+      </c>
+      <c r="V36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="W36" s="1">
+        <v>30</v>
+      </c>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="1">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="1">
+        <v>175500</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5900</v>
+      </c>
+      <c r="W37" s="1">
+        <v>30</v>
+      </c>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2024</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="1">
+        <v>219000</v>
+      </c>
+      <c r="V38" s="1">
+        <v>7300</v>
+      </c>
+      <c r="W38" s="1">
+        <v>30</v>
+      </c>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G39" s="1">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="1">
+        <v>211500</v>
+      </c>
+      <c r="V39" s="1">
+        <v>7300</v>
+      </c>
+      <c r="W39" s="1">
+        <v>30</v>
+      </c>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="1">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="1">
+        <v>345000</v>
+      </c>
+      <c r="V40" s="1">
+        <v>11500</v>
+      </c>
+      <c r="W40" s="1">
+        <v>30</v>
+      </c>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="1">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="W41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1500</v>
+      </c>
+      <c r="W42" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V43" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W43" s="1">
+        <v>19</v>
+      </c>
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="1">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V44" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W44" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="1">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V45" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W45" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="1">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V46" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W46" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="1">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V47" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W47" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="1">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G48" s="1">
+        <v>6</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V48" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W48" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="1">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V49" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W49" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="1">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V50" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W50" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G51" s="1">
+        <v>9</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V51" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W51" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="1">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V52" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W52" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="1">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G53" s="1">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V53" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W53" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="1">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G54" s="1">
+        <v>12</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54" s="1">
+        <v>210000</v>
+      </c>
+      <c r="V54" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W54" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="1">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K55" s="1">
+        <v>220800</v>
+      </c>
+      <c r="V55" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W55" s="1">
+        <v>18</v>
+      </c>
+      <c r="X55" s="2"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="1">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G56" s="1">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2024</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" s="1">
+        <v>194250</v>
+      </c>
+      <c r="V56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="W56" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="1">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G57" s="1">
+        <v>9</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K57" s="1">
+        <v>255500</v>
+      </c>
+      <c r="V57" s="1">
+        <v>12000</v>
+      </c>
+      <c r="W57" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="1">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>7500</v>
+      </c>
+      <c r="W58" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="1">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="V59" s="1">
+        <v>175000</v>
+      </c>
+      <c r="W59" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +7607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5234,15 +7615,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -5256,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -5267,7 +7648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -5278,7 +7659,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -5289,7 +7670,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -5300,7 +7681,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -5311,7 +7692,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1</v>
       </c>
